--- a/results/SConstruct-Graph.xlsx
+++ b/results/SConstruct-Graph.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,19 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David Lenovo\Documents\code\SCons-Make-Research\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C6DCA39C-36B8-4311-93DB-39D594A37484}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40812709-8836-4944-AF19-C9C6D82E9960}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SConstruct" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">SConstruct!$E$265:$E$280</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">SConstruct!$F$264</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">SConstruct!$F$265:$F$280</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">SConstruct!$E$265:$E$280</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">SConstruct!$F$264</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">SConstruct!$F$265:$F$280</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="248">
   <si>
     <t>Repository name</t>
   </si>
@@ -695,12 +711,81 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>Sum Lines added</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sum Lines removed</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sum No. Commits</t>
+  </si>
+  <si>
+    <t>Repository age (EPOCH) (Sorted)</t>
+  </si>
+  <si>
+    <t>Sorted (Scons)</t>
+  </si>
+  <si>
+    <t>EPOCHS</t>
+  </si>
+  <si>
+    <t>From this year</t>
+  </si>
+  <si>
+    <t>Ave commits per year</t>
+  </si>
+  <si>
+    <t>Scons</t>
+  </si>
+  <si>
+    <t>Pre-2005</t>
+  </si>
+  <si>
+    <t>1199145600 (2008)</t>
+  </si>
+  <si>
+    <t>1104537600 (2005)</t>
+  </si>
+  <si>
+    <t>1230768000 (2009)</t>
+  </si>
+  <si>
+    <t>1262304000 (2010)</t>
+  </si>
+  <si>
+    <t>1293840000 (2011)</t>
+  </si>
+  <si>
+    <t>1325376000 (2012)</t>
+  </si>
+  <si>
+    <t>1356998400 (2013)</t>
+  </si>
+  <si>
+    <t>1388534400 (2014)</t>
+  </si>
+  <si>
+    <t>1420070400 (2015)</t>
+  </si>
+  <si>
+    <t>1451606400 (2016)</t>
+  </si>
+  <si>
+    <t>1483228800 (2017)</t>
+  </si>
+  <si>
+    <t>1514764800 (2018)</t>
+  </si>
+  <si>
+    <t>1546300800 (2019)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1178,8 +1263,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1236,6 +1324,5283 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:xVal>
+            <c:numRef>
+              <c:f>SConstruct!$J$165:$J$260</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="96"/>
+                <c:pt idx="0">
+                  <c:v>1011660709</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1011660709</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1034422658</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1043968983</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1105019550</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1176413691</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1207339321</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1237799935</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1237860221</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1253670590</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1256766229</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1266842558</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1283229025</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1297682135</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1298894081</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1299789239</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1306259723</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1314799558</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1315200408</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1315445249</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1320407798</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1322330353</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1332474676</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1332980051</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1333947798</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1342094874</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1342637455</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1346341630</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1348000436</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1351114087</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1354381046</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1357278519</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1360718707</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1370204000</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1370826833</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1381535033</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1389397070</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1390609370</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1392085662</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1394046157</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1402921179</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1406140457</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1408490281</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1409153544</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1409750299</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1413278657</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1417504653</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1417801488</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1428876281</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1430510164</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1430925380</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1434653100</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1442661280</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1449368275</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1452698004</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1453435001</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1454464594</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1454782656</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1457612258</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1461716054</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1465194671</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1466016288</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1467255205</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1477854720</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1488826636</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1490184268</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1496071665</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1496349016</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1498090728</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1499234528</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1500339182</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1500537826</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1502494929</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1504609799</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1509043599</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1509980917</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1510627730</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1513433461</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1513502366</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1514105016</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1515425925</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1520258352</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1520325457</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1521427474</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1524250714</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1532509459</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1533588545</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1540966450</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1541901013</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1542819512</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1543443398</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1544565019</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1548861450</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1552745223</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1555035076</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1558985607</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>SConstruct!$G$165:$G$260</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="96"/>
+                <c:pt idx="0">
+                  <c:v>235</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6696</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>622</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1920</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>17</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-7DA6-41A0-A862-7076377B1065}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>SConstruct!$J$165:$J$260</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="96"/>
+                <c:pt idx="0">
+                  <c:v>1011660709</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1011660709</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1034422658</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1043968983</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1105019550</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1176413691</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1207339321</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1237799935</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1237860221</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1253670590</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1256766229</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1266842558</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1283229025</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1297682135</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1298894081</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1299789239</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1306259723</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1314799558</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1315200408</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1315445249</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1320407798</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1322330353</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1332474676</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1332980051</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1333947798</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1342094874</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1342637455</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1346341630</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1348000436</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1351114087</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1354381046</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1357278519</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1360718707</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1370204000</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1370826833</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1381535033</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1389397070</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1390609370</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1392085662</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1394046157</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1402921179</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1406140457</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1408490281</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1409153544</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1409750299</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1413278657</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1417504653</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1417801488</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1428876281</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1430510164</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1430925380</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1434653100</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1442661280</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1449368275</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1452698004</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1453435001</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1454464594</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1454782656</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1457612258</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1461716054</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1465194671</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1466016288</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1467255205</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1477854720</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1488826636</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1490184268</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1496071665</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1496349016</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1498090728</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1499234528</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1500339182</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1500537826</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1502494929</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1504609799</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1509043599</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1509980917</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1510627730</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1513433461</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1513502366</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1514105016</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1515425925</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1520258352</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1520325457</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1521427474</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1524250714</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1532509459</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1533588545</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1540966450</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1541901013</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1542819512</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1543443398</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1544565019</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1548861450</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1552745223</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1555035076</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1558985607</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>SConstruct!$G$165:$G$260</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="96"/>
+                <c:pt idx="0">
+                  <c:v>235</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6696</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>622</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1920</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>17</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-7DA6-41A0-A862-7076377B1065}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="2"/>
+          <c:xVal>
+            <c:numRef>
+              <c:f>SConstruct!$J$165:$J$260</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="96"/>
+                <c:pt idx="0">
+                  <c:v>1011660709</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1011660709</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1034422658</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1043968983</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1105019550</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1176413691</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1207339321</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1237799935</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1237860221</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1253670590</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1256766229</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1266842558</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1283229025</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1297682135</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1298894081</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1299789239</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1306259723</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1314799558</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1315200408</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1315445249</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1320407798</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1322330353</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1332474676</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1332980051</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1333947798</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1342094874</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1342637455</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1346341630</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1348000436</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1351114087</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1354381046</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1357278519</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1360718707</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1370204000</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1370826833</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1381535033</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1389397070</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1390609370</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1392085662</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1394046157</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1402921179</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1406140457</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1408490281</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1409153544</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1409750299</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1413278657</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1417504653</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1417801488</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1428876281</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1430510164</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1430925380</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1434653100</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1442661280</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1449368275</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1452698004</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1453435001</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1454464594</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1454782656</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1457612258</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1461716054</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1465194671</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1466016288</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1467255205</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1477854720</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1488826636</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1490184268</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1496071665</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1496349016</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1498090728</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1499234528</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1500339182</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1500537826</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1502494929</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1504609799</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1509043599</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1509980917</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1510627730</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1513433461</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1513502366</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1514105016</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1515425925</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1520258352</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1520325457</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1521427474</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1524250714</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1532509459</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1533588545</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1540966450</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1541901013</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1542819512</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1543443398</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1544565019</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1548861450</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1552745223</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1555035076</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1558985607</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>SConstruct!$G$165:$G$260</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="96"/>
+                <c:pt idx="0">
+                  <c:v>235</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6696</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>622</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1920</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>17</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-7DA6-41A0-A862-7076377B1065}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>SConstruct!$J$165:$J$260</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="96"/>
+                <c:pt idx="0">
+                  <c:v>1011660709</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1011660709</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1034422658</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1043968983</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1105019550</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1176413691</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1207339321</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1237799935</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1237860221</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1253670590</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1256766229</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1266842558</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1283229025</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1297682135</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1298894081</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1299789239</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1306259723</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1314799558</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1315200408</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1315445249</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1320407798</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1322330353</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1332474676</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1332980051</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1333947798</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1342094874</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1342637455</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1346341630</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1348000436</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1351114087</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1354381046</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1357278519</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1360718707</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1370204000</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1370826833</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1381535033</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1389397070</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1390609370</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1392085662</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1394046157</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1402921179</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1406140457</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1408490281</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1409153544</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1409750299</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1413278657</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1417504653</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1417801488</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1428876281</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1430510164</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1430925380</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1434653100</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1442661280</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1449368275</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1452698004</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1453435001</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1454464594</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1454782656</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1457612258</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1461716054</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1465194671</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1466016288</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1467255205</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1477854720</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1488826636</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1490184268</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1496071665</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1496349016</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1498090728</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1499234528</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1500339182</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1500537826</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1502494929</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1504609799</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1509043599</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1509980917</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1510627730</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1513433461</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1513502366</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1514105016</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1515425925</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1520258352</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1520325457</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1521427474</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1524250714</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1532509459</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1533588545</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1540966450</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1541901013</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1542819512</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1543443398</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1544565019</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1548861450</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1552745223</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1555035076</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1558985607</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>SConstruct!$G$165:$G$260</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="96"/>
+                <c:pt idx="0">
+                  <c:v>235</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6696</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>622</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1920</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>17</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-7DA6-41A0-A862-7076377B1065}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="879026064"/>
+        <c:axId val="884723136"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="879026064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1580000000"/>
+          <c:min val="960000000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="884723136"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="884723136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="879026064"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t> No.</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Commits against Repository age</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>SConstruct!$B$264</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> Sum No. Commits</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>SConstruct!$A$265:$A$360</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="96"/>
+                <c:pt idx="0">
+                  <c:v>1011660709</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1011660709</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1034422658</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1043968983</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1105019550</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1176413691</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1207339321</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1237799935</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1237860221</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1253670590</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1256766229</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1266842558</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1283229025</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1297682135</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1298894081</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1299789239</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1306259723</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1314799558</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1315200408</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1315445249</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1320407798</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1322330353</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1332474676</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1332980051</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1333947798</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1342094874</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1342637455</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1346341630</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1348000436</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1351114087</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1354381046</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1357278519</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1360718707</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1370204000</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1370826833</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1381535033</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1389397070</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1390609370</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1392085662</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1394046157</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1402921179</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1406140457</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1408490281</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1409153544</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1409750299</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1413278657</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1417504653</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1417801488</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1428876281</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1430510164</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1430925380</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1434653100</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1442661280</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1449368275</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1452698004</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1453435001</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1454464594</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1454782656</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1457612258</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1461716054</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1465194671</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1466016288</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1467255205</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1477854720</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1488826636</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1490184268</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1496071665</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1496349016</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1498090728</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1499234528</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1500339182</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1500537826</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1502494929</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1504609799</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1509043599</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1509980917</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1510627730</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1513433461</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1513502366</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1514105016</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1515425925</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1520258352</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1520325457</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1521427474</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1524250714</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1532509459</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1533588545</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1540966450</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1541901013</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1542819512</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1543443398</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1544565019</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1548861450</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1552745223</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1555035076</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1558985607</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>SConstruct!$B$265:$B$360</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="96"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>486</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>337</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1A44-4D7E-B937-606B69EB9710}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1006030576"/>
+        <c:axId val="884765152"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1006030576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1620000000"/>
+          <c:min val="950000000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>Repository age</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="884765152"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="884765152"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>No. Commits</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1006030576"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Average number of commits per Year (SCons)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>SConstruct!$F$264</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ave commits per year</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>SConstruct!$E$265:$E$280</c:f>
+              <c:strCache>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>Pre-2005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2019</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>SConstruct!$F$265:$F$280</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>128.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>173.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.444444444444445</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.7777777777777777</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.3333333333333335</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.8125</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.8125</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.4166666666666667</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0FD7-4949-A244-E6FFC9137432}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="650686528"/>
+        <c:axId val="932099808"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="650686528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="932099808"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="932099808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="650686528"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>267609</xdr:colOff>
+      <xdr:row>164</xdr:row>
+      <xdr:rowOff>147864</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>585109</xdr:colOff>
+      <xdr:row>179</xdr:row>
+      <xdr:rowOff>169636</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D932E5B-0076-465C-B1DC-8F9B1C991A30}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>191635</xdr:colOff>
+      <xdr:row>299</xdr:row>
+      <xdr:rowOff>11338</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>917350</xdr:colOff>
+      <xdr:row>314</xdr:row>
+      <xdr:rowOff>33110</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="19" name="Chart 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0EA077FA-48FD-4378-9BCB-27C4C3177739}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>170657</xdr:colOff>
+      <xdr:row>280</xdr:row>
+      <xdr:rowOff>140493</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>583407</xdr:colOff>
+      <xdr:row>295</xdr:row>
+      <xdr:rowOff>145255</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="24" name="Chart 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1770225D-C2C5-4C43-843B-1ABB936B9967}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1534,12 +6899,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F261"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J360"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A255" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G284" sqref="G284"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="24.453125" customWidth="1"/>
+    <col min="2" max="2" width="16.6328125" customWidth="1"/>
+    <col min="3" max="3" width="21.26953125" customWidth="1"/>
+    <col min="4" max="4" width="18.1796875" customWidth="1"/>
+    <col min="5" max="5" width="21.81640625" customWidth="1"/>
+    <col min="6" max="6" width="19.54296875" customWidth="1"/>
+    <col min="7" max="7" width="18.36328125" customWidth="1"/>
+    <col min="8" max="8" width="16.26953125" customWidth="1"/>
+    <col min="10" max="10" width="28.1796875" customWidth="1"/>
+    <col min="19" max="19" width="20.26953125" customWidth="1"/>
+    <col min="20" max="20" width="17" customWidth="1"/>
+    <col min="21" max="21" width="20.26953125" customWidth="1"/>
+    <col min="22" max="22" width="17.90625" customWidth="1"/>
+    <col min="23" max="23" width="16.54296875" customWidth="1"/>
+    <col min="25" max="25" width="21.1796875" customWidth="1"/>
+    <col min="26" max="26" width="15.7265625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -4741,7 +10126,7 @@
         <v>6093</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>217</v>
       </c>
@@ -4761,7 +10146,7 @@
         <v>1086</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>218</v>
       </c>
@@ -4781,7 +10166,7 @@
         <v>1372</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>219</v>
       </c>
@@ -4797,8 +10182,20 @@
       <c r="E164" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F164" t="s">
+        <v>225</v>
+      </c>
+      <c r="G164" t="s">
+        <v>226</v>
+      </c>
+      <c r="H164" t="s">
+        <v>227</v>
+      </c>
+      <c r="J164" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>6</v>
       </c>
@@ -4814,8 +10211,20 @@
       <c r="E165">
         <v>1454782656</v>
       </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F165">
+        <v>470</v>
+      </c>
+      <c r="G165">
+        <v>235</v>
+      </c>
+      <c r="H165">
+        <v>3</v>
+      </c>
+      <c r="J165">
+        <v>1011660709</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>8</v>
       </c>
@@ -4831,8 +10240,20 @@
       <c r="E166">
         <v>1452698004</v>
       </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F166">
+        <v>14</v>
+      </c>
+      <c r="G166">
+        <v>0</v>
+      </c>
+      <c r="H166">
+        <v>7</v>
+      </c>
+      <c r="J166">
+        <v>1011660709</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>16</v>
       </c>
@@ -4848,8 +10269,20 @@
       <c r="E167">
         <v>1477854720</v>
       </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F167">
+        <v>244</v>
+      </c>
+      <c r="G167">
+        <v>0</v>
+      </c>
+      <c r="H167">
+        <v>2</v>
+      </c>
+      <c r="J167">
+        <v>1034422658</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>19</v>
       </c>
@@ -4865,8 +10298,20 @@
       <c r="E168">
         <v>1408490281</v>
       </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F168">
+        <v>146</v>
+      </c>
+      <c r="G168">
+        <v>0</v>
+      </c>
+      <c r="H168">
+        <v>1</v>
+      </c>
+      <c r="J168">
+        <v>1043968983</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>21</v>
       </c>
@@ -4882,8 +10327,20 @@
       <c r="E169">
         <v>1256766229</v>
       </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F169">
+        <v>42</v>
+      </c>
+      <c r="G169">
+        <v>0</v>
+      </c>
+      <c r="H169">
+        <v>1</v>
+      </c>
+      <c r="J169">
+        <v>1105019550</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>23</v>
       </c>
@@ -4899,8 +10356,20 @@
       <c r="E170">
         <v>1237799935</v>
       </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F170">
+        <v>484</v>
+      </c>
+      <c r="G170">
+        <v>240</v>
+      </c>
+      <c r="H170">
+        <v>6</v>
+      </c>
+      <c r="J170">
+        <v>1176413691</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>26</v>
       </c>
@@ -4916,8 +10385,20 @@
       <c r="E171">
         <v>1315200408</v>
       </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F171">
+        <v>81</v>
+      </c>
+      <c r="G171">
+        <v>0</v>
+      </c>
+      <c r="H171">
+        <v>1</v>
+      </c>
+      <c r="J171">
+        <v>1207339321</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>28</v>
       </c>
@@ -4933,8 +10414,20 @@
       <c r="E172">
         <v>1466016288</v>
       </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F172">
+        <v>248</v>
+      </c>
+      <c r="G172">
+        <v>0</v>
+      </c>
+      <c r="H172">
+        <v>1</v>
+      </c>
+      <c r="J172">
+        <v>1237799935</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>30</v>
       </c>
@@ -4950,8 +10443,20 @@
       <c r="E173">
         <v>1389397070</v>
       </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F173">
+        <v>235</v>
+      </c>
+      <c r="G173">
+        <v>0</v>
+      </c>
+      <c r="H173">
+        <v>1</v>
+      </c>
+      <c r="J173">
+        <v>1237860221</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>32</v>
       </c>
@@ -4967,8 +10472,20 @@
       <c r="E174">
         <v>1430925380</v>
       </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F174">
+        <v>42</v>
+      </c>
+      <c r="G174">
+        <v>0</v>
+      </c>
+      <c r="H174">
+        <v>1</v>
+      </c>
+      <c r="J174">
+        <v>1253670590</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>34</v>
       </c>
@@ -4984,8 +10501,20 @@
       <c r="E175">
         <v>1370826833</v>
       </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F175">
+        <v>732</v>
+      </c>
+      <c r="G175">
+        <v>0</v>
+      </c>
+      <c r="H175">
+        <v>2</v>
+      </c>
+      <c r="J175">
+        <v>1256766229</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>37</v>
       </c>
@@ -5001,8 +10530,20 @@
       <c r="E176">
         <v>1488826636</v>
       </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F176">
+        <v>471</v>
+      </c>
+      <c r="G176">
+        <v>0</v>
+      </c>
+      <c r="H176">
+        <v>1</v>
+      </c>
+      <c r="J176">
+        <v>1266842558</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>39</v>
       </c>
@@ -5018,8 +10559,20 @@
       <c r="E177">
         <v>1332980051</v>
       </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F177">
+        <v>53</v>
+      </c>
+      <c r="G177">
+        <v>22</v>
+      </c>
+      <c r="H177">
+        <v>10</v>
+      </c>
+      <c r="J177">
+        <v>1283229025</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>40</v>
       </c>
@@ -5035,8 +10588,20 @@
       <c r="E178">
         <v>1034422658</v>
       </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F178">
+        <v>8003</v>
+      </c>
+      <c r="G178">
+        <v>6696</v>
+      </c>
+      <c r="H178">
+        <v>486</v>
+      </c>
+      <c r="J178">
+        <v>1297682135</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>41</v>
       </c>
@@ -5052,8 +10617,20 @@
       <c r="E179">
         <v>1320407798</v>
       </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F179">
+        <v>5</v>
+      </c>
+      <c r="G179">
+        <v>0</v>
+      </c>
+      <c r="H179">
+        <v>1</v>
+      </c>
+      <c r="J179">
+        <v>1298894081</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>43</v>
       </c>
@@ -5069,8 +10646,20 @@
       <c r="E180">
         <v>1428876281</v>
       </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F180">
+        <v>266</v>
+      </c>
+      <c r="G180">
+        <v>0</v>
+      </c>
+      <c r="H180">
+        <v>1</v>
+      </c>
+      <c r="J180">
+        <v>1299789239</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>45</v>
       </c>
@@ -5086,8 +10675,20 @@
       <c r="E181">
         <v>1496071665</v>
       </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F181">
+        <v>101</v>
+      </c>
+      <c r="G181">
+        <v>0</v>
+      </c>
+      <c r="H181">
+        <v>1</v>
+      </c>
+      <c r="J181">
+        <v>1306259723</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>47</v>
       </c>
@@ -5103,8 +10704,20 @@
       <c r="E182">
         <v>1360718707</v>
       </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F182">
+        <v>248</v>
+      </c>
+      <c r="G182">
+        <v>0</v>
+      </c>
+      <c r="H182">
+        <v>1</v>
+      </c>
+      <c r="J182">
+        <v>1314799558</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>49</v>
       </c>
@@ -5120,8 +10733,20 @@
       <c r="E183">
         <v>1390609370</v>
       </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F183">
+        <v>84</v>
+      </c>
+      <c r="G183">
+        <v>56</v>
+      </c>
+      <c r="H183">
+        <v>10</v>
+      </c>
+      <c r="J183">
+        <v>1315200408</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>52</v>
       </c>
@@ -5137,8 +10762,20 @@
       <c r="E184">
         <v>1513502366</v>
       </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F184">
+        <v>4108</v>
+      </c>
+      <c r="G184">
+        <v>0</v>
+      </c>
+      <c r="H184">
+        <v>2</v>
+      </c>
+      <c r="J184">
+        <v>1315445249</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>55</v>
       </c>
@@ -5154,8 +10791,20 @@
       <c r="E185">
         <v>1354381046</v>
       </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F185">
+        <v>11</v>
+      </c>
+      <c r="G185">
+        <v>2</v>
+      </c>
+      <c r="H185">
+        <v>2</v>
+      </c>
+      <c r="J185">
+        <v>1320407798</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>57</v>
       </c>
@@ -5171,8 +10820,20 @@
       <c r="E186">
         <v>1413278657</v>
       </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F186">
+        <v>287</v>
+      </c>
+      <c r="G186">
+        <v>0</v>
+      </c>
+      <c r="H186">
+        <v>8</v>
+      </c>
+      <c r="J186">
+        <v>1322330353</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>66</v>
       </c>
@@ -5188,8 +10849,20 @@
       <c r="E187">
         <v>1253670590</v>
       </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F187">
+        <v>2</v>
+      </c>
+      <c r="G187">
+        <v>0</v>
+      </c>
+      <c r="H187">
+        <v>2</v>
+      </c>
+      <c r="J187">
+        <v>1332474676</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>69</v>
       </c>
@@ -5205,8 +10878,20 @@
       <c r="E188">
         <v>1314799558</v>
       </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F188">
+        <v>6</v>
+      </c>
+      <c r="G188">
+        <v>0</v>
+      </c>
+      <c r="H188">
+        <v>1</v>
+      </c>
+      <c r="J188">
+        <v>1332980051</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>70</v>
       </c>
@@ -5222,8 +10907,20 @@
       <c r="E189">
         <v>1541901013</v>
       </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F189">
+        <v>4</v>
+      </c>
+      <c r="G189">
+        <v>0</v>
+      </c>
+      <c r="H189">
+        <v>1</v>
+      </c>
+      <c r="J189">
+        <v>1333947798</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>71</v>
       </c>
@@ -5239,8 +10936,20 @@
       <c r="E190">
         <v>1490184268</v>
       </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F190">
+        <v>155</v>
+      </c>
+      <c r="G190">
+        <v>0</v>
+      </c>
+      <c r="H190">
+        <v>1</v>
+      </c>
+      <c r="J190">
+        <v>1342094874</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>73</v>
       </c>
@@ -5256,8 +10965,20 @@
       <c r="E191">
         <v>1457612258</v>
       </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F191">
+        <v>505</v>
+      </c>
+      <c r="G191">
+        <v>10</v>
+      </c>
+      <c r="H191">
+        <v>22</v>
+      </c>
+      <c r="J191">
+        <v>1342637455</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>93</v>
       </c>
@@ -5273,8 +10994,20 @@
       <c r="E192">
         <v>1515425925</v>
       </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F192">
+        <v>155</v>
+      </c>
+      <c r="G192">
+        <v>0</v>
+      </c>
+      <c r="H192">
+        <v>1</v>
+      </c>
+      <c r="J192">
+        <v>1346341630</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>95</v>
       </c>
@@ -5290,8 +11023,20 @@
       <c r="E193">
         <v>1533588545</v>
       </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F193">
+        <v>286</v>
+      </c>
+      <c r="G193">
+        <v>0</v>
+      </c>
+      <c r="H193">
+        <v>2</v>
+      </c>
+      <c r="J193">
+        <v>1348000436</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>98</v>
       </c>
@@ -5307,8 +11052,20 @@
       <c r="E194">
         <v>1442661280</v>
       </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F194">
+        <v>244</v>
+      </c>
+      <c r="G194">
+        <v>0</v>
+      </c>
+      <c r="H194">
+        <v>2</v>
+      </c>
+      <c r="J194">
+        <v>1351114087</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>101</v>
       </c>
@@ -5324,8 +11081,20 @@
       <c r="E195">
         <v>1502494929</v>
       </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F195">
+        <v>102</v>
+      </c>
+      <c r="G195">
+        <v>0</v>
+      </c>
+      <c r="H195">
+        <v>1</v>
+      </c>
+      <c r="J195">
+        <v>1354381046</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>103</v>
       </c>
@@ -5341,8 +11110,20 @@
       <c r="E196">
         <v>1542819512</v>
       </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F196">
+        <v>1</v>
+      </c>
+      <c r="G196">
+        <v>0</v>
+      </c>
+      <c r="H196">
+        <v>1</v>
+      </c>
+      <c r="J196">
+        <v>1357278519</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>104</v>
       </c>
@@ -5358,8 +11139,20 @@
       <c r="E197">
         <v>1322330353</v>
       </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F197">
+        <v>4</v>
+      </c>
+      <c r="G197">
+        <v>0</v>
+      </c>
+      <c r="H197">
+        <v>1</v>
+      </c>
+      <c r="J197">
+        <v>1360718707</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>105</v>
       </c>
@@ -5375,8 +11168,20 @@
       <c r="E198">
         <v>1348000436</v>
       </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F198">
+        <v>99</v>
+      </c>
+      <c r="G198">
+        <v>0</v>
+      </c>
+      <c r="H198">
+        <v>1</v>
+      </c>
+      <c r="J198">
+        <v>1370204000</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>107</v>
       </c>
@@ -5392,8 +11197,20 @@
       <c r="E199">
         <v>1520325457</v>
       </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F199">
+        <v>61</v>
+      </c>
+      <c r="G199">
+        <v>0</v>
+      </c>
+      <c r="H199">
+        <v>1</v>
+      </c>
+      <c r="J199">
+        <v>1370826833</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>109</v>
       </c>
@@ -5409,8 +11226,20 @@
       <c r="E200">
         <v>1370204000</v>
       </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F200">
+        <v>13</v>
+      </c>
+      <c r="G200">
+        <v>1</v>
+      </c>
+      <c r="H200">
+        <v>3</v>
+      </c>
+      <c r="J200">
+        <v>1381535033</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>110</v>
       </c>
@@ -5426,8 +11255,20 @@
       <c r="E201">
         <v>1392085662</v>
       </c>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F201">
+        <v>236</v>
+      </c>
+      <c r="G201">
+        <v>0</v>
+      </c>
+      <c r="H201">
+        <v>1</v>
+      </c>
+      <c r="J201">
+        <v>1389397070</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>111</v>
       </c>
@@ -5443,8 +11284,20 @@
       <c r="E202">
         <v>1332474676</v>
       </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F202">
+        <v>2</v>
+      </c>
+      <c r="G202">
+        <v>0</v>
+      </c>
+      <c r="H202">
+        <v>2</v>
+      </c>
+      <c r="J202">
+        <v>1390609370</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>114</v>
       </c>
@@ -5460,8 +11313,20 @@
       <c r="E203">
         <v>1558985607</v>
       </c>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F203">
+        <v>61</v>
+      </c>
+      <c r="G203">
+        <v>0</v>
+      </c>
+      <c r="H203">
+        <v>1</v>
+      </c>
+      <c r="J203">
+        <v>1392085662</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>116</v>
       </c>
@@ -5477,8 +11342,20 @@
       <c r="E204">
         <v>1306259723</v>
       </c>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F204">
+        <v>55</v>
+      </c>
+      <c r="G204">
+        <v>4</v>
+      </c>
+      <c r="H204">
+        <v>4</v>
+      </c>
+      <c r="J204">
+        <v>1394046157</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>117</v>
       </c>
@@ -5494,8 +11371,20 @@
       <c r="E205">
         <v>1297682135</v>
       </c>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F205">
+        <v>366</v>
+      </c>
+      <c r="G205">
+        <v>41</v>
+      </c>
+      <c r="H205">
+        <v>2</v>
+      </c>
+      <c r="J205">
+        <v>1402921179</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>118</v>
       </c>
@@ -5511,8 +11400,20 @@
       <c r="E206">
         <v>1283229025</v>
       </c>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F206">
+        <v>115</v>
+      </c>
+      <c r="G206">
+        <v>4</v>
+      </c>
+      <c r="H206">
+        <v>2</v>
+      </c>
+      <c r="J206">
+        <v>1406140457</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>119</v>
       </c>
@@ -5528,8 +11429,20 @@
       <c r="E207">
         <v>1467255205</v>
       </c>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F207">
+        <v>122</v>
+      </c>
+      <c r="G207">
+        <v>0</v>
+      </c>
+      <c r="H207">
+        <v>2</v>
+      </c>
+      <c r="J207">
+        <v>1408490281</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>121</v>
       </c>
@@ -5545,8 +11458,20 @@
       <c r="E208">
         <v>1342637455</v>
       </c>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F208">
+        <v>235</v>
+      </c>
+      <c r="G208">
+        <v>0</v>
+      </c>
+      <c r="H208">
+        <v>1</v>
+      </c>
+      <c r="J208">
+        <v>1409153544</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>123</v>
       </c>
@@ -5562,8 +11487,20 @@
       <c r="E209">
         <v>1409153544</v>
       </c>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F209">
+        <v>122</v>
+      </c>
+      <c r="G209">
+        <v>0</v>
+      </c>
+      <c r="H209">
+        <v>2</v>
+      </c>
+      <c r="J209">
+        <v>1409750299</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>124</v>
       </c>
@@ -5579,8 +11516,20 @@
       <c r="E210">
         <v>1520258352</v>
       </c>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F210">
+        <v>3</v>
+      </c>
+      <c r="G210">
+        <v>0</v>
+      </c>
+      <c r="H210">
+        <v>1</v>
+      </c>
+      <c r="J210">
+        <v>1413278657</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>125</v>
       </c>
@@ -5596,8 +11545,20 @@
       <c r="E211">
         <v>1043968983</v>
       </c>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F211">
+        <v>181</v>
+      </c>
+      <c r="G211">
+        <v>129</v>
+      </c>
+      <c r="H211">
+        <v>27</v>
+      </c>
+      <c r="J211">
+        <v>1417504653</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>127</v>
       </c>
@@ -5613,8 +11574,20 @@
       <c r="E212">
         <v>1499234528</v>
       </c>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F212">
+        <v>16</v>
+      </c>
+      <c r="G212">
+        <v>0</v>
+      </c>
+      <c r="H212">
+        <v>8</v>
+      </c>
+      <c r="J212">
+        <v>1417801488</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>136</v>
       </c>
@@ -5630,8 +11603,20 @@
       <c r="E213">
         <v>1342094874</v>
       </c>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F213">
+        <v>3337</v>
+      </c>
+      <c r="G213">
+        <v>0</v>
+      </c>
+      <c r="H213">
+        <v>4</v>
+      </c>
+      <c r="J213">
+        <v>1428876281</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>141</v>
       </c>
@@ -5647,8 +11632,20 @@
       <c r="E214">
         <v>1266842558</v>
       </c>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F214">
+        <v>240</v>
+      </c>
+      <c r="G214">
+        <v>15</v>
+      </c>
+      <c r="H214">
+        <v>17</v>
+      </c>
+      <c r="J214">
+        <v>1430510164</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>144</v>
       </c>
@@ -5664,8 +11661,20 @@
       <c r="E215">
         <v>1532509459</v>
       </c>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F215">
+        <v>157</v>
+      </c>
+      <c r="G215">
+        <v>0</v>
+      </c>
+      <c r="H215">
+        <v>1</v>
+      </c>
+      <c r="J215">
+        <v>1430925380</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>146</v>
       </c>
@@ -5681,8 +11690,20 @@
       <c r="E216">
         <v>1514105016</v>
       </c>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F216">
+        <v>155</v>
+      </c>
+      <c r="G216">
+        <v>0</v>
+      </c>
+      <c r="H216">
+        <v>1</v>
+      </c>
+      <c r="J216">
+        <v>1434653100</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>147</v>
       </c>
@@ -5698,8 +11719,20 @@
       <c r="E217">
         <v>1453435001</v>
       </c>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F217">
+        <v>606</v>
+      </c>
+      <c r="G217">
+        <v>0</v>
+      </c>
+      <c r="H217">
+        <v>1</v>
+      </c>
+      <c r="J217">
+        <v>1442661280</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>148</v>
       </c>
@@ -5715,8 +11748,20 @@
       <c r="E218">
         <v>1176413691</v>
       </c>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F218">
+        <v>134</v>
+      </c>
+      <c r="G218">
+        <v>35</v>
+      </c>
+      <c r="H218">
+        <v>10</v>
+      </c>
+      <c r="J218">
+        <v>1449368275</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>149</v>
       </c>
@@ -5732,8 +11777,20 @@
       <c r="E219">
         <v>1402921179</v>
       </c>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F219">
+        <v>102</v>
+      </c>
+      <c r="G219">
+        <v>0</v>
+      </c>
+      <c r="H219">
+        <v>1</v>
+      </c>
+      <c r="J219">
+        <v>1452698004</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>151</v>
       </c>
@@ -5749,8 +11806,20 @@
       <c r="E220">
         <v>1540966450</v>
       </c>
-    </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F220">
+        <v>518</v>
+      </c>
+      <c r="G220">
+        <v>0</v>
+      </c>
+      <c r="H220">
+        <v>2</v>
+      </c>
+      <c r="J220">
+        <v>1453435001</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>154</v>
       </c>
@@ -5766,8 +11835,20 @@
       <c r="E221">
         <v>1465194671</v>
       </c>
-    </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F221">
+        <v>197</v>
+      </c>
+      <c r="G221">
+        <v>0</v>
+      </c>
+      <c r="H221">
+        <v>1</v>
+      </c>
+      <c r="J221">
+        <v>1454464594</v>
+      </c>
+    </row>
+    <row r="222" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>156</v>
       </c>
@@ -5783,8 +11864,20 @@
       <c r="E222">
         <v>1509043599</v>
       </c>
-    </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F222">
+        <v>175</v>
+      </c>
+      <c r="G222">
+        <v>0</v>
+      </c>
+      <c r="H222">
+        <v>1</v>
+      </c>
+      <c r="J222">
+        <v>1454782656</v>
+      </c>
+    </row>
+    <row r="223" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>157</v>
       </c>
@@ -5800,8 +11893,20 @@
       <c r="E223">
         <v>1011660709</v>
       </c>
-    </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F223">
+        <v>197</v>
+      </c>
+      <c r="G223">
+        <v>0</v>
+      </c>
+      <c r="H223">
+        <v>1</v>
+      </c>
+      <c r="J223">
+        <v>1457612258</v>
+      </c>
+    </row>
+    <row r="224" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>158</v>
       </c>
@@ -5817,8 +11922,20 @@
       <c r="E224">
         <v>1011660709</v>
       </c>
-    </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F224">
+        <v>197</v>
+      </c>
+      <c r="G224">
+        <v>0</v>
+      </c>
+      <c r="H224">
+        <v>1</v>
+      </c>
+      <c r="J224">
+        <v>1461716054</v>
+      </c>
+    </row>
+    <row r="225" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>159</v>
       </c>
@@ -5834,8 +11951,20 @@
       <c r="E225">
         <v>1454464594</v>
       </c>
-    </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F225">
+        <v>6</v>
+      </c>
+      <c r="G225">
+        <v>0</v>
+      </c>
+      <c r="H225">
+        <v>3</v>
+      </c>
+      <c r="J225">
+        <v>1465194671</v>
+      </c>
+    </row>
+    <row r="226" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>164</v>
       </c>
@@ -5851,8 +11980,20 @@
       <c r="E226">
         <v>1406140457</v>
       </c>
-    </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F226">
+        <v>774</v>
+      </c>
+      <c r="G226">
+        <v>0</v>
+      </c>
+      <c r="H226">
+        <v>1</v>
+      </c>
+      <c r="J226">
+        <v>1466016288</v>
+      </c>
+    </row>
+    <row r="227" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>166</v>
       </c>
@@ -5868,8 +12009,20 @@
       <c r="E227">
         <v>1351114087</v>
       </c>
-    </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F227">
+        <v>90</v>
+      </c>
+      <c r="G227">
+        <v>4</v>
+      </c>
+      <c r="H227">
+        <v>4</v>
+      </c>
+      <c r="J227">
+        <v>1467255205</v>
+      </c>
+    </row>
+    <row r="228" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>168</v>
       </c>
@@ -5885,8 +12038,20 @@
       <c r="E228">
         <v>1298894081</v>
       </c>
-    </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F228">
+        <v>244</v>
+      </c>
+      <c r="G228">
+        <v>0</v>
+      </c>
+      <c r="H228">
+        <v>2</v>
+      </c>
+      <c r="J228">
+        <v>1477854720</v>
+      </c>
+    </row>
+    <row r="229" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>169</v>
       </c>
@@ -5902,8 +12067,20 @@
       <c r="E229">
         <v>1504609799</v>
       </c>
-    </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F229">
+        <v>46</v>
+      </c>
+      <c r="G229">
+        <v>0</v>
+      </c>
+      <c r="H229">
+        <v>1</v>
+      </c>
+      <c r="J229">
+        <v>1488826636</v>
+      </c>
+    </row>
+    <row r="230" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>171</v>
       </c>
@@ -5919,8 +12096,20 @@
       <c r="E230">
         <v>1524250714</v>
       </c>
-    </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F230">
+        <v>46</v>
+      </c>
+      <c r="G230">
+        <v>0</v>
+      </c>
+      <c r="H230">
+        <v>1</v>
+      </c>
+      <c r="J230">
+        <v>1490184268</v>
+      </c>
+    </row>
+    <row r="231" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>172</v>
       </c>
@@ -5936,8 +12125,20 @@
       <c r="E231">
         <v>1461716054</v>
       </c>
-    </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F231">
+        <v>164</v>
+      </c>
+      <c r="G231">
+        <v>1</v>
+      </c>
+      <c r="H231">
+        <v>3</v>
+      </c>
+      <c r="J231">
+        <v>1496071665</v>
+      </c>
+    </row>
+    <row r="232" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>174</v>
       </c>
@@ -5953,8 +12154,20 @@
       <c r="E232">
         <v>1509980917</v>
       </c>
-    </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F232">
+        <v>155</v>
+      </c>
+      <c r="G232">
+        <v>0</v>
+      </c>
+      <c r="H232">
+        <v>1</v>
+      </c>
+      <c r="J232">
+        <v>1496349016</v>
+      </c>
+    </row>
+    <row r="233" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>176</v>
       </c>
@@ -5970,8 +12183,20 @@
       <c r="E233">
         <v>1409750299</v>
       </c>
-    </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F233">
+        <v>67</v>
+      </c>
+      <c r="G233">
+        <v>0</v>
+      </c>
+      <c r="H233">
+        <v>1</v>
+      </c>
+      <c r="J233">
+        <v>1498090728</v>
+      </c>
+    </row>
+    <row r="234" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>177</v>
       </c>
@@ -5987,8 +12212,20 @@
       <c r="E234">
         <v>1417504653</v>
       </c>
-    </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F234">
+        <v>21</v>
+      </c>
+      <c r="G234">
+        <v>8</v>
+      </c>
+      <c r="H234">
+        <v>7</v>
+      </c>
+      <c r="J234">
+        <v>1499234528</v>
+      </c>
+    </row>
+    <row r="235" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>178</v>
       </c>
@@ -6004,8 +12241,20 @@
       <c r="E235">
         <v>1333947798</v>
       </c>
-    </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F235">
+        <v>158</v>
+      </c>
+      <c r="G235">
+        <v>66</v>
+      </c>
+      <c r="H235">
+        <v>25</v>
+      </c>
+      <c r="J235">
+        <v>1500339182</v>
+      </c>
+    </row>
+    <row r="236" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>179</v>
       </c>
@@ -6021,8 +12270,20 @@
       <c r="E236">
         <v>1434653100</v>
       </c>
-    </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F236">
+        <v>240</v>
+      </c>
+      <c r="G236">
+        <v>0</v>
+      </c>
+      <c r="H236">
+        <v>2</v>
+      </c>
+      <c r="J236">
+        <v>1500537826</v>
+      </c>
+    </row>
+    <row r="237" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>182</v>
       </c>
@@ -6038,8 +12299,20 @@
       <c r="E237">
         <v>1548861450</v>
       </c>
-    </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F237">
+        <v>244</v>
+      </c>
+      <c r="G237">
+        <v>0</v>
+      </c>
+      <c r="H237">
+        <v>2</v>
+      </c>
+      <c r="J237">
+        <v>1502494929</v>
+      </c>
+    </row>
+    <row r="238" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>185</v>
       </c>
@@ -6055,8 +12328,20 @@
       <c r="E238">
         <v>1449368275</v>
       </c>
-    </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F238">
+        <v>128</v>
+      </c>
+      <c r="G238">
+        <v>17</v>
+      </c>
+      <c r="H238">
+        <v>7</v>
+      </c>
+      <c r="J238">
+        <v>1504609799</v>
+      </c>
+    </row>
+    <row r="239" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>186</v>
       </c>
@@ -6072,8 +12357,20 @@
       <c r="E239">
         <v>1555035076</v>
       </c>
-    </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F239">
+        <v>21</v>
+      </c>
+      <c r="G239">
+        <v>1</v>
+      </c>
+      <c r="H239">
+        <v>3</v>
+      </c>
+      <c r="J239">
+        <v>1509043599</v>
+      </c>
+    </row>
+    <row r="240" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>187</v>
       </c>
@@ -6089,8 +12386,20 @@
       <c r="E240">
         <v>1430510164</v>
       </c>
-    </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F240">
+        <v>117</v>
+      </c>
+      <c r="G240">
+        <v>0</v>
+      </c>
+      <c r="H240">
+        <v>1</v>
+      </c>
+      <c r="J240">
+        <v>1509980917</v>
+      </c>
+    </row>
+    <row r="241" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>188</v>
       </c>
@@ -6106,8 +12415,20 @@
       <c r="E241">
         <v>1544565019</v>
       </c>
-    </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F241">
+        <v>556</v>
+      </c>
+      <c r="G241">
+        <v>0</v>
+      </c>
+      <c r="H241">
+        <v>1</v>
+      </c>
+      <c r="J241">
+        <v>1510627730</v>
+      </c>
+    </row>
+    <row r="242" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>189</v>
       </c>
@@ -6123,8 +12444,20 @@
       <c r="E242">
         <v>1299789239</v>
       </c>
-    </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F242">
+        <v>732</v>
+      </c>
+      <c r="G242">
+        <v>622</v>
+      </c>
+      <c r="H242">
+        <v>44</v>
+      </c>
+      <c r="J242">
+        <v>1513433461</v>
+      </c>
+    </row>
+    <row r="243" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>191</v>
       </c>
@@ -6140,8 +12473,20 @@
       <c r="E243">
         <v>1496349016</v>
       </c>
-    </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F243">
+        <v>356</v>
+      </c>
+      <c r="G243">
+        <v>0</v>
+      </c>
+      <c r="H243">
+        <v>1</v>
+      </c>
+      <c r="J243">
+        <v>1513502366</v>
+      </c>
+    </row>
+    <row r="244" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>193</v>
       </c>
@@ -6157,8 +12502,20 @@
       <c r="E244">
         <v>1500339182</v>
       </c>
-    </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F244">
+        <v>23</v>
+      </c>
+      <c r="G244">
+        <v>1</v>
+      </c>
+      <c r="H244">
+        <v>3</v>
+      </c>
+      <c r="J244">
+        <v>1514105016</v>
+      </c>
+    </row>
+    <row r="245" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>194</v>
       </c>
@@ -6174,8 +12531,20 @@
       <c r="E245">
         <v>1207339321</v>
       </c>
-    </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F245">
+        <v>10</v>
+      </c>
+      <c r="G245">
+        <v>5</v>
+      </c>
+      <c r="H245">
+        <v>6</v>
+      </c>
+      <c r="J245">
+        <v>1515425925</v>
+      </c>
+    </row>
+    <row r="246" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>196</v>
       </c>
@@ -6191,8 +12560,20 @@
       <c r="E246">
         <v>1498090728</v>
       </c>
-    </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F246">
+        <v>22</v>
+      </c>
+      <c r="G246">
+        <v>0</v>
+      </c>
+      <c r="H246">
+        <v>1</v>
+      </c>
+      <c r="J246">
+        <v>1520258352</v>
+      </c>
+    </row>
+    <row r="247" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>197</v>
       </c>
@@ -6208,8 +12589,20 @@
       <c r="E247">
         <v>1543443398</v>
       </c>
-    </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F247">
+        <v>4</v>
+      </c>
+      <c r="G247">
+        <v>0</v>
+      </c>
+      <c r="H247">
+        <v>1</v>
+      </c>
+      <c r="J247">
+        <v>1520325457</v>
+      </c>
+    </row>
+    <row r="248" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>198</v>
       </c>
@@ -6225,8 +12618,20 @@
       <c r="E248">
         <v>1510627730</v>
       </c>
-    </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F248">
+        <v>155</v>
+      </c>
+      <c r="G248">
+        <v>0</v>
+      </c>
+      <c r="H248">
+        <v>1</v>
+      </c>
+      <c r="J248">
+        <v>1521427474</v>
+      </c>
+    </row>
+    <row r="249" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>199</v>
       </c>
@@ -6242,8 +12647,20 @@
       <c r="E249">
         <v>1552745223</v>
       </c>
-    </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F249">
+        <v>46</v>
+      </c>
+      <c r="G249">
+        <v>0</v>
+      </c>
+      <c r="H249">
+        <v>1</v>
+      </c>
+      <c r="J249">
+        <v>1524250714</v>
+      </c>
+    </row>
+    <row r="250" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>201</v>
       </c>
@@ -6259,8 +12676,20 @@
       <c r="E250">
         <v>1346341630</v>
       </c>
-    </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F250">
+        <v>758</v>
+      </c>
+      <c r="G250">
+        <v>4</v>
+      </c>
+      <c r="H250">
+        <v>3</v>
+      </c>
+      <c r="J250">
+        <v>1532509459</v>
+      </c>
+    </row>
+    <row r="251" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>202</v>
       </c>
@@ -6276,8 +12705,20 @@
       <c r="E251">
         <v>1237860221</v>
       </c>
-    </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F251">
+        <v>1205</v>
+      </c>
+      <c r="G251">
+        <v>103</v>
+      </c>
+      <c r="H251">
+        <v>5</v>
+      </c>
+      <c r="J251">
+        <v>1533588545</v>
+      </c>
+    </row>
+    <row r="252" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>203</v>
       </c>
@@ -6293,8 +12734,20 @@
       <c r="E252">
         <v>1394046157</v>
       </c>
-    </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F252">
+        <v>1610</v>
+      </c>
+      <c r="G252">
+        <v>0</v>
+      </c>
+      <c r="H252">
+        <v>2</v>
+      </c>
+      <c r="J252">
+        <v>1540966450</v>
+      </c>
+    </row>
+    <row r="253" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>206</v>
       </c>
@@ -6310,8 +12763,20 @@
       <c r="E253">
         <v>1500537826</v>
       </c>
-    </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F253">
+        <v>266</v>
+      </c>
+      <c r="G253">
+        <v>86</v>
+      </c>
+      <c r="H253">
+        <v>20</v>
+      </c>
+      <c r="J253">
+        <v>1541901013</v>
+      </c>
+    </row>
+    <row r="254" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>208</v>
       </c>
@@ -6327,8 +12792,20 @@
       <c r="E254">
         <v>1357278519</v>
       </c>
-    </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F254">
+        <v>84</v>
+      </c>
+      <c r="G254">
+        <v>0</v>
+      </c>
+      <c r="H254">
+        <v>3</v>
+      </c>
+      <c r="J254">
+        <v>1542819512</v>
+      </c>
+    </row>
+    <row r="255" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>212</v>
       </c>
@@ -6344,8 +12821,20 @@
       <c r="E255">
         <v>1381535033</v>
       </c>
-    </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F255">
+        <v>71</v>
+      </c>
+      <c r="G255">
+        <v>0</v>
+      </c>
+      <c r="H255">
+        <v>1</v>
+      </c>
+      <c r="J255">
+        <v>1543443398</v>
+      </c>
+    </row>
+    <row r="256" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
         <v>214</v>
       </c>
@@ -6361,8 +12850,20 @@
       <c r="E256">
         <v>1315445249</v>
       </c>
-    </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F256">
+        <v>636</v>
+      </c>
+      <c r="G256">
+        <v>260</v>
+      </c>
+      <c r="H256">
+        <v>56</v>
+      </c>
+      <c r="J256">
+        <v>1544565019</v>
+      </c>
+    </row>
+    <row r="257" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
         <v>215</v>
       </c>
@@ -6378,8 +12879,20 @@
       <c r="E257">
         <v>1105019550</v>
       </c>
-    </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F257">
+        <v>2713</v>
+      </c>
+      <c r="G257">
+        <v>1920</v>
+      </c>
+      <c r="H257">
+        <v>337</v>
+      </c>
+      <c r="J257">
+        <v>1548861450</v>
+      </c>
+    </row>
+    <row r="258" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>216</v>
       </c>
@@ -6395,8 +12908,20 @@
       <c r="E258">
         <v>1513433461</v>
       </c>
-    </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F258">
+        <v>155</v>
+      </c>
+      <c r="G258">
+        <v>0</v>
+      </c>
+      <c r="H258">
+        <v>1</v>
+      </c>
+      <c r="J258">
+        <v>1552745223</v>
+      </c>
+    </row>
+    <row r="259" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>217</v>
       </c>
@@ -6412,8 +12937,20 @@
       <c r="E259">
         <v>1417801488</v>
       </c>
-    </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F259">
+        <v>40</v>
+      </c>
+      <c r="G259">
+        <v>0</v>
+      </c>
+      <c r="H259">
+        <v>1</v>
+      </c>
+      <c r="J259">
+        <v>1555035076</v>
+      </c>
+    </row>
+    <row r="260" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>218</v>
       </c>
@@ -6429,8 +12966,20 @@
       <c r="E260">
         <v>1521427474</v>
       </c>
-    </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F260">
+        <v>63</v>
+      </c>
+      <c r="G260">
+        <v>17</v>
+      </c>
+      <c r="H260">
+        <v>4</v>
+      </c>
+      <c r="J260">
+        <v>1558985607</v>
+      </c>
+    </row>
+    <row r="261" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>224</v>
       </c>
@@ -6438,7 +12987,1100 @@
         <v>160</v>
       </c>
     </row>
+    <row r="263" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A263" t="s">
+        <v>229</v>
+      </c>
+      <c r="D263" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="264" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A264" t="s">
+        <v>223</v>
+      </c>
+      <c r="B264" t="s">
+        <v>227</v>
+      </c>
+      <c r="C264" s="1"/>
+      <c r="D264" t="s">
+        <v>230</v>
+      </c>
+      <c r="E264" t="s">
+        <v>231</v>
+      </c>
+      <c r="F264" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="265" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A265">
+        <v>1011660709</v>
+      </c>
+      <c r="B265">
+        <v>1</v>
+      </c>
+      <c r="C265" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D265" s="1">
+        <v>1546300800</v>
+      </c>
+      <c r="E265" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="F265">
+        <f>AVERAGE(B265:B268)</f>
+        <v>128.75</v>
+      </c>
+      <c r="G265" s="1"/>
+    </row>
+    <row r="266" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A266">
+        <v>1011660709</v>
+      </c>
+      <c r="B266">
+        <v>1</v>
+      </c>
+      <c r="C266" s="1"/>
+      <c r="D266" s="1">
+        <v>1514764800</v>
+      </c>
+      <c r="E266" s="1">
+        <v>2005</v>
+      </c>
+      <c r="F266">
+        <f>AVERAGE(B269:B270)</f>
+        <v>173.5</v>
+      </c>
+      <c r="G266" s="1"/>
+    </row>
+    <row r="267" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A267">
+        <v>1034422658</v>
+      </c>
+      <c r="B267">
+        <v>486</v>
+      </c>
+      <c r="C267" s="1"/>
+      <c r="D267" s="1">
+        <v>1483228800</v>
+      </c>
+      <c r="E267" s="1">
+        <v>2006</v>
+      </c>
+      <c r="F267" s="1">
+        <v>0</v>
+      </c>
+      <c r="G267" s="1"/>
+    </row>
+    <row r="268" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A268">
+        <v>1043968983</v>
+      </c>
+      <c r="B268">
+        <v>27</v>
+      </c>
+      <c r="C268" s="1"/>
+      <c r="D268" s="1">
+        <v>1451606400</v>
+      </c>
+      <c r="E268" s="1">
+        <v>2007</v>
+      </c>
+      <c r="F268">
+        <v>0</v>
+      </c>
+      <c r="G268" s="1"/>
+    </row>
+    <row r="269" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A269">
+        <v>1105019550</v>
+      </c>
+      <c r="B269">
+        <v>337</v>
+      </c>
+      <c r="C269" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="D269" s="1">
+        <v>1420070400</v>
+      </c>
+      <c r="E269">
+        <v>2008</v>
+      </c>
+      <c r="F269">
+        <f>B271</f>
+        <v>6</v>
+      </c>
+      <c r="G269" s="1"/>
+    </row>
+    <row r="270" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A270">
+        <v>1176413691</v>
+      </c>
+      <c r="B270">
+        <v>10</v>
+      </c>
+      <c r="C270" s="1"/>
+      <c r="D270" s="1">
+        <v>1388534400</v>
+      </c>
+      <c r="E270" s="1">
+        <v>2009</v>
+      </c>
+      <c r="F270">
+        <f>AVERAGE(B276:B277)</f>
+        <v>9.5</v>
+      </c>
+      <c r="G270" s="1"/>
+    </row>
+    <row r="271" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A271">
+        <v>1207339321</v>
+      </c>
+      <c r="B271">
+        <v>6</v>
+      </c>
+      <c r="C271" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D271" s="1">
+        <v>1356998400</v>
+      </c>
+      <c r="E271" s="1">
+        <v>2010</v>
+      </c>
+      <c r="F271">
+        <f>AVERAGE(B278:B286)</f>
+        <v>12.444444444444445</v>
+      </c>
+      <c r="G271" s="1"/>
+    </row>
+    <row r="272" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A272">
+        <v>1237799935</v>
+      </c>
+      <c r="B272">
+        <v>6</v>
+      </c>
+      <c r="C272" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D272" s="1">
+        <v>1325376000</v>
+      </c>
+      <c r="E272" s="1">
+        <v>2011</v>
+      </c>
+      <c r="F272">
+        <f>AVERAGE(B287:B295)</f>
+        <v>5.7777777777777777</v>
+      </c>
+      <c r="G272" s="1"/>
+    </row>
+    <row r="273" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A273">
+        <v>1237860221</v>
+      </c>
+      <c r="B273">
+        <v>5</v>
+      </c>
+      <c r="C273" s="1"/>
+      <c r="D273" s="1">
+        <v>1293840000</v>
+      </c>
+      <c r="E273" s="1">
+        <v>2012</v>
+      </c>
+      <c r="F273">
+        <f>AVERAGE(B296:B300)</f>
+        <v>2</v>
+      </c>
+      <c r="G273" s="1"/>
+    </row>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A274">
+        <v>1253670590</v>
+      </c>
+      <c r="B274">
+        <v>2</v>
+      </c>
+      <c r="C274" s="1"/>
+      <c r="D274" s="1">
+        <v>1262304000</v>
+      </c>
+      <c r="E274" s="1">
+        <v>2013</v>
+      </c>
+      <c r="F274">
+        <f>AVERAGE(B301:B312)</f>
+        <v>3</v>
+      </c>
+      <c r="G274" s="1"/>
+    </row>
+    <row r="275" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A275">
+        <v>1256766229</v>
+      </c>
+      <c r="B275">
+        <v>1</v>
+      </c>
+      <c r="C275" s="1"/>
+      <c r="D275" s="1">
+        <v>1230768000</v>
+      </c>
+      <c r="E275" s="1">
+        <v>2014</v>
+      </c>
+      <c r="F275">
+        <f>AVERAGE(B313:B318)</f>
+        <v>2.3333333333333335</v>
+      </c>
+      <c r="G275" s="1"/>
+    </row>
+    <row r="276" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A276">
+        <v>1266842558</v>
+      </c>
+      <c r="B276">
+        <v>17</v>
+      </c>
+      <c r="C276" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D276" s="1">
+        <v>1199145600</v>
+      </c>
+      <c r="E276" s="1">
+        <v>2015</v>
+      </c>
+      <c r="F276">
+        <f>AVERAGE(B319:B328)</f>
+        <v>4.5</v>
+      </c>
+      <c r="G276" s="1"/>
+    </row>
+    <row r="277" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A277">
+        <v>1283229025</v>
+      </c>
+      <c r="B277">
+        <v>2</v>
+      </c>
+      <c r="C277" s="1"/>
+      <c r="D277" s="1">
+        <v>1167609600</v>
+      </c>
+      <c r="E277" s="1">
+        <v>2016</v>
+      </c>
+      <c r="F277">
+        <f>AVERAGE(B329:B344)</f>
+        <v>2.8125</v>
+      </c>
+      <c r="G277" s="1"/>
+    </row>
+    <row r="278" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A278">
+        <v>1297682135</v>
+      </c>
+      <c r="B278">
+        <v>2</v>
+      </c>
+      <c r="C278" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D278" s="1">
+        <v>1136073600</v>
+      </c>
+      <c r="E278" s="1">
+        <v>2017</v>
+      </c>
+      <c r="F278">
+        <f>AVERAGE(B329:B344)</f>
+        <v>2.8125</v>
+      </c>
+      <c r="G278" s="1"/>
+    </row>
+    <row r="279" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A279">
+        <v>1298894081</v>
+      </c>
+      <c r="B279">
+        <v>2</v>
+      </c>
+      <c r="C279" s="1"/>
+      <c r="D279" s="1">
+        <v>1104537600</v>
+      </c>
+      <c r="E279" s="1">
+        <v>2018</v>
+      </c>
+      <c r="F279">
+        <f>AVERAGE(B345:B356)</f>
+        <v>1.4166666666666667</v>
+      </c>
+      <c r="G279" s="1"/>
+    </row>
+    <row r="280" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A280">
+        <v>1299789239</v>
+      </c>
+      <c r="B280">
+        <v>44</v>
+      </c>
+      <c r="C280" s="1"/>
+      <c r="E280" s="1">
+        <v>2019</v>
+      </c>
+      <c r="F280">
+        <f>AVERAGE(B357:B360)</f>
+        <v>1.75</v>
+      </c>
+      <c r="G280" s="1"/>
+    </row>
+    <row r="281" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A281">
+        <v>1306259723</v>
+      </c>
+      <c r="B281">
+        <v>4</v>
+      </c>
+      <c r="C281" s="1"/>
+    </row>
+    <row r="282" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A282">
+        <v>1314799558</v>
+      </c>
+      <c r="B282">
+        <v>1</v>
+      </c>
+      <c r="C282" s="1"/>
+    </row>
+    <row r="283" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A283">
+        <v>1315200408</v>
+      </c>
+      <c r="B283">
+        <v>1</v>
+      </c>
+      <c r="C283" s="1"/>
+    </row>
+    <row r="284" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A284">
+        <v>1315445249</v>
+      </c>
+      <c r="B284">
+        <v>56</v>
+      </c>
+      <c r="C284" s="1"/>
+    </row>
+    <row r="285" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A285">
+        <v>1320407798</v>
+      </c>
+      <c r="B285">
+        <v>1</v>
+      </c>
+      <c r="C285" s="1"/>
+    </row>
+    <row r="286" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A286">
+        <v>1322330353</v>
+      </c>
+      <c r="B286">
+        <v>1</v>
+      </c>
+      <c r="C286" s="1"/>
+    </row>
+    <row r="287" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A287">
+        <v>1332474676</v>
+      </c>
+      <c r="B287">
+        <v>2</v>
+      </c>
+      <c r="C287" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A288">
+        <v>1332980051</v>
+      </c>
+      <c r="B288">
+        <v>10</v>
+      </c>
+      <c r="C288" s="1"/>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A289">
+        <v>1333947798</v>
+      </c>
+      <c r="B289">
+        <v>25</v>
+      </c>
+      <c r="C289" s="1"/>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A290">
+        <v>1342094874</v>
+      </c>
+      <c r="B290">
+        <v>4</v>
+      </c>
+      <c r="C290" s="1"/>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A291">
+        <v>1342637455</v>
+      </c>
+      <c r="B291">
+        <v>1</v>
+      </c>
+      <c r="C291" s="1"/>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A292">
+        <v>1346341630</v>
+      </c>
+      <c r="B292">
+        <v>3</v>
+      </c>
+      <c r="C292" s="1"/>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A293">
+        <v>1348000436</v>
+      </c>
+      <c r="B293">
+        <v>1</v>
+      </c>
+      <c r="C293" s="1"/>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A294">
+        <v>1351114087</v>
+      </c>
+      <c r="B294">
+        <v>4</v>
+      </c>
+      <c r="C294" s="1"/>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A295">
+        <v>1354381046</v>
+      </c>
+      <c r="B295">
+        <v>2</v>
+      </c>
+      <c r="C295" s="1"/>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A296">
+        <v>1357278519</v>
+      </c>
+      <c r="B296">
+        <v>3</v>
+      </c>
+      <c r="C296" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A297">
+        <v>1360718707</v>
+      </c>
+      <c r="B297">
+        <v>1</v>
+      </c>
+      <c r="C297" s="1"/>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A298">
+        <v>1370204000</v>
+      </c>
+      <c r="B298">
+        <v>3</v>
+      </c>
+      <c r="C298" s="1"/>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A299">
+        <v>1370826833</v>
+      </c>
+      <c r="B299">
+        <v>2</v>
+      </c>
+      <c r="C299" s="1"/>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A300">
+        <v>1381535033</v>
+      </c>
+      <c r="B300">
+        <v>1</v>
+      </c>
+      <c r="C300" s="1"/>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A301">
+        <v>1389397070</v>
+      </c>
+      <c r="B301">
+        <v>1</v>
+      </c>
+      <c r="C301" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A302">
+        <v>1390609370</v>
+      </c>
+      <c r="B302">
+        <v>10</v>
+      </c>
+      <c r="C302" s="1"/>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A303">
+        <v>1392085662</v>
+      </c>
+      <c r="B303">
+        <v>1</v>
+      </c>
+      <c r="C303" s="1"/>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A304">
+        <v>1394046157</v>
+      </c>
+      <c r="B304">
+        <v>2</v>
+      </c>
+      <c r="C304" s="1"/>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A305">
+        <v>1402921179</v>
+      </c>
+      <c r="B305">
+        <v>1</v>
+      </c>
+      <c r="C305" s="1"/>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A306">
+        <v>1406140457</v>
+      </c>
+      <c r="B306">
+        <v>1</v>
+      </c>
+      <c r="C306" s="1"/>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A307">
+        <v>1408490281</v>
+      </c>
+      <c r="B307">
+        <v>1</v>
+      </c>
+      <c r="C307" s="1"/>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A308">
+        <v>1409153544</v>
+      </c>
+      <c r="B308">
+        <v>2</v>
+      </c>
+      <c r="C308" s="1"/>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A309">
+        <v>1409750299</v>
+      </c>
+      <c r="B309">
+        <v>1</v>
+      </c>
+      <c r="C309" s="1"/>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A310">
+        <v>1413278657</v>
+      </c>
+      <c r="B310">
+        <v>8</v>
+      </c>
+      <c r="C310" s="1"/>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A311">
+        <v>1417504653</v>
+      </c>
+      <c r="B311">
+        <v>7</v>
+      </c>
+      <c r="C311" s="1"/>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A312">
+        <v>1417801488</v>
+      </c>
+      <c r="B312">
+        <v>1</v>
+      </c>
+      <c r="C312" s="1"/>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A313">
+        <v>1428876281</v>
+      </c>
+      <c r="B313">
+        <v>1</v>
+      </c>
+      <c r="C313" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A314">
+        <v>1430510164</v>
+      </c>
+      <c r="B314">
+        <v>1</v>
+      </c>
+      <c r="C314" s="1"/>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A315">
+        <v>1430925380</v>
+      </c>
+      <c r="B315">
+        <v>1</v>
+      </c>
+      <c r="C315" s="1"/>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A316">
+        <v>1434653100</v>
+      </c>
+      <c r="B316">
+        <v>2</v>
+      </c>
+      <c r="C316" s="1"/>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A317">
+        <v>1442661280</v>
+      </c>
+      <c r="B317">
+        <v>2</v>
+      </c>
+      <c r="C317" s="1"/>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A318">
+        <v>1449368275</v>
+      </c>
+      <c r="B318">
+        <v>7</v>
+      </c>
+      <c r="C318" s="1"/>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A319">
+        <v>1452698004</v>
+      </c>
+      <c r="B319">
+        <v>7</v>
+      </c>
+      <c r="C319" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A320">
+        <v>1453435001</v>
+      </c>
+      <c r="B320">
+        <v>1</v>
+      </c>
+      <c r="C320" s="1"/>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A321">
+        <v>1454464594</v>
+      </c>
+      <c r="B321">
+        <v>3</v>
+      </c>
+      <c r="C321" s="1"/>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A322">
+        <v>1454782656</v>
+      </c>
+      <c r="B322">
+        <v>3</v>
+      </c>
+      <c r="C322" s="1"/>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A323">
+        <v>1457612258</v>
+      </c>
+      <c r="B323">
+        <v>22</v>
+      </c>
+      <c r="C323" s="1"/>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A324">
+        <v>1461716054</v>
+      </c>
+      <c r="B324">
+        <v>3</v>
+      </c>
+      <c r="C324" s="1"/>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A325">
+        <v>1465194671</v>
+      </c>
+      <c r="B325">
+        <v>1</v>
+      </c>
+      <c r="C325" s="1"/>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A326">
+        <v>1466016288</v>
+      </c>
+      <c r="B326">
+        <v>1</v>
+      </c>
+      <c r="C326" s="1"/>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A327">
+        <v>1467255205</v>
+      </c>
+      <c r="B327">
+        <v>2</v>
+      </c>
+      <c r="C327" s="1"/>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A328">
+        <v>1477854720</v>
+      </c>
+      <c r="B328">
+        <v>2</v>
+      </c>
+      <c r="C328" s="1"/>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A329">
+        <v>1488826636</v>
+      </c>
+      <c r="B329">
+        <v>1</v>
+      </c>
+      <c r="C329" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A330">
+        <v>1490184268</v>
+      </c>
+      <c r="B330">
+        <v>1</v>
+      </c>
+      <c r="C330" s="1"/>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A331">
+        <v>1496071665</v>
+      </c>
+      <c r="B331">
+        <v>1</v>
+      </c>
+      <c r="C331" s="1"/>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A332">
+        <v>1496349016</v>
+      </c>
+      <c r="B332">
+        <v>1</v>
+      </c>
+      <c r="C332" s="1"/>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A333">
+        <v>1498090728</v>
+      </c>
+      <c r="B333">
+        <v>1</v>
+      </c>
+      <c r="C333" s="1"/>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A334">
+        <v>1499234528</v>
+      </c>
+      <c r="B334">
+        <v>8</v>
+      </c>
+      <c r="C334" s="1"/>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A335">
+        <v>1500339182</v>
+      </c>
+      <c r="B335">
+        <v>3</v>
+      </c>
+      <c r="C335" s="1"/>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A336">
+        <v>1500537826</v>
+      </c>
+      <c r="B336">
+        <v>20</v>
+      </c>
+      <c r="C336" s="1"/>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A337">
+        <v>1502494929</v>
+      </c>
+      <c r="B337">
+        <v>1</v>
+      </c>
+      <c r="C337" s="1"/>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A338">
+        <v>1504609799</v>
+      </c>
+      <c r="B338">
+        <v>1</v>
+      </c>
+      <c r="C338" s="1"/>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A339">
+        <v>1509043599</v>
+      </c>
+      <c r="B339">
+        <v>1</v>
+      </c>
+      <c r="C339" s="1"/>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A340">
+        <v>1509980917</v>
+      </c>
+      <c r="B340">
+        <v>1</v>
+      </c>
+      <c r="C340" s="1"/>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A341">
+        <v>1510627730</v>
+      </c>
+      <c r="B341">
+        <v>1</v>
+      </c>
+      <c r="C341" s="1"/>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A342">
+        <v>1513433461</v>
+      </c>
+      <c r="B342">
+        <v>1</v>
+      </c>
+      <c r="C342" s="1"/>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A343">
+        <v>1513502366</v>
+      </c>
+      <c r="B343">
+        <v>2</v>
+      </c>
+      <c r="C343" s="1"/>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A344">
+        <v>1514105016</v>
+      </c>
+      <c r="B344">
+        <v>1</v>
+      </c>
+      <c r="C344" s="1"/>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A345">
+        <v>1515425925</v>
+      </c>
+      <c r="B345">
+        <v>1</v>
+      </c>
+      <c r="C345" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A346">
+        <v>1520258352</v>
+      </c>
+      <c r="B346">
+        <v>1</v>
+      </c>
+      <c r="C346" s="1"/>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A347">
+        <v>1520325457</v>
+      </c>
+      <c r="B347">
+        <v>1</v>
+      </c>
+      <c r="C347" s="1"/>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A348">
+        <v>1521427474</v>
+      </c>
+      <c r="B348">
+        <v>4</v>
+      </c>
+      <c r="C348" s="1"/>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A349">
+        <v>1524250714</v>
+      </c>
+      <c r="B349">
+        <v>1</v>
+      </c>
+      <c r="C349" s="1"/>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A350">
+        <v>1532509459</v>
+      </c>
+      <c r="B350">
+        <v>1</v>
+      </c>
+      <c r="C350" s="1"/>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A351">
+        <v>1533588545</v>
+      </c>
+      <c r="B351">
+        <v>2</v>
+      </c>
+      <c r="C351" s="1"/>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A352">
+        <v>1540966450</v>
+      </c>
+      <c r="B352">
+        <v>2</v>
+      </c>
+      <c r="C352" s="1"/>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A353">
+        <v>1541901013</v>
+      </c>
+      <c r="B353">
+        <v>1</v>
+      </c>
+      <c r="C353" s="1"/>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A354">
+        <v>1542819512</v>
+      </c>
+      <c r="B354">
+        <v>1</v>
+      </c>
+      <c r="C354" s="1"/>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A355">
+        <v>1543443398</v>
+      </c>
+      <c r="B355">
+        <v>1</v>
+      </c>
+      <c r="C355" s="1"/>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A356">
+        <v>1544565019</v>
+      </c>
+      <c r="B356">
+        <v>1</v>
+      </c>
+      <c r="C356" s="1"/>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A357">
+        <v>1548861450</v>
+      </c>
+      <c r="B357">
+        <v>2</v>
+      </c>
+      <c r="C357" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A358">
+        <v>1552745223</v>
+      </c>
+      <c r="B358">
+        <v>1</v>
+      </c>
+      <c r="C358" s="1"/>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A359">
+        <v>1555035076</v>
+      </c>
+      <c r="B359">
+        <v>3</v>
+      </c>
+      <c r="C359" s="1"/>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A360">
+        <v>1558985607</v>
+      </c>
+      <c r="B360">
+        <v>1</v>
+      </c>
+      <c r="C360" s="1"/>
+    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="G266:G280">
+    <sortCondition ref="G266:G280"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/results/SConstruct-Graph.xlsx
+++ b/results/SConstruct-Graph.xlsx
@@ -8,21 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David Lenovo\Documents\code\SCons-Make-Research\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40812709-8836-4944-AF19-C9C6D82E9960}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4FF2687-F976-41D1-AE32-40753FAED133}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SConstruct" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">SConstruct!$E$265:$E$280</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">SConstruct!$F$264</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">SConstruct!$F$265:$F$280</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">SConstruct!$E$265:$E$280</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">SConstruct!$F$264</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">SConstruct!$F$265:$F$280</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -36,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="229">
   <si>
     <t>Repository name</t>
   </si>
@@ -723,63 +715,6 @@
   </si>
   <si>
     <t>Repository age (EPOCH) (Sorted)</t>
-  </si>
-  <si>
-    <t>Sorted (Scons)</t>
-  </si>
-  <si>
-    <t>EPOCHS</t>
-  </si>
-  <si>
-    <t>From this year</t>
-  </si>
-  <si>
-    <t>Ave commits per year</t>
-  </si>
-  <si>
-    <t>Scons</t>
-  </si>
-  <si>
-    <t>Pre-2005</t>
-  </si>
-  <si>
-    <t>1199145600 (2008)</t>
-  </si>
-  <si>
-    <t>1104537600 (2005)</t>
-  </si>
-  <si>
-    <t>1230768000 (2009)</t>
-  </si>
-  <si>
-    <t>1262304000 (2010)</t>
-  </si>
-  <si>
-    <t>1293840000 (2011)</t>
-  </si>
-  <si>
-    <t>1325376000 (2012)</t>
-  </si>
-  <si>
-    <t>1356998400 (2013)</t>
-  </si>
-  <si>
-    <t>1388534400 (2014)</t>
-  </si>
-  <si>
-    <t>1420070400 (2015)</t>
-  </si>
-  <si>
-    <t>1451606400 (2016)</t>
-  </si>
-  <si>
-    <t>1483228800 (2017)</t>
-  </si>
-  <si>
-    <t>1514764800 (2018)</t>
-  </si>
-  <si>
-    <t>1546300800 (2019)</t>
   </si>
 </sst>
 </file>
@@ -4074,9 +4009,6 @@
               <c:f>SConstruct!$B$264</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v> Sum No. Commits</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -4110,294 +4042,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="96"/>
-                <c:pt idx="0">
-                  <c:v>1011660709</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1011660709</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1034422658</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1043968983</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1105019550</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1176413691</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1207339321</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1237799935</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1237860221</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1253670590</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1256766229</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1266842558</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1283229025</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1297682135</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1298894081</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1299789239</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1306259723</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1314799558</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1315200408</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1315445249</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1320407798</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1322330353</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1332474676</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1332980051</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1333947798</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1342094874</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1342637455</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1346341630</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1348000436</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1351114087</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1354381046</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1357278519</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>1360718707</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>1370204000</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>1370826833</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>1381535033</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>1389397070</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>1390609370</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>1392085662</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>1394046157</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>1402921179</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>1406140457</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>1408490281</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>1409153544</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>1409750299</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>1413278657</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>1417504653</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>1417801488</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>1428876281</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>1430510164</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>1430925380</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>1434653100</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>1442661280</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>1449368275</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>1452698004</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>1453435001</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>1454464594</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>1454782656</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>1457612258</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>1461716054</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>1465194671</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>1466016288</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>1467255205</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>1477854720</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>1488826636</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>1490184268</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>1496071665</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>1496349016</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>1498090728</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>1499234528</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>1500339182</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>1500537826</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>1502494929</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>1504609799</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>1509043599</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>1509980917</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>1510627730</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>1513433461</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>1513502366</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>1514105016</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>1515425925</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>1520258352</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>1520325457</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>1521427474</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>1524250714</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>1532509459</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>1533588545</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>1540966450</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>1541901013</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>1542819512</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>1543443398</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>1544565019</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>1548861450</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>1552745223</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>1555035076</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>1558985607</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -4407,294 +4051,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="96"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>486</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>337</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>1</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -5005,431 +4361,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Average number of commits per Year (SCons)</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>SConstruct!$F$264</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Ave commits per year</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>SConstruct!$E$265:$E$280</c:f>
-              <c:strCache>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>Pre-2005</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2005</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2006</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2007</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2008</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2009</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2010</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2011</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2012</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2013</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2014</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2015</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2016</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2017</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2018</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2019</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>SConstruct!$F$265:$F$280</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>128.75</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>173.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>9.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>12.444444444444445</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5.7777777777777777</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.3333333333333335</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>4.5</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2.8125</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2.8125</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.4166666666666667</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.75</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0FD7-4949-A244-E6FFC9137432}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="650686528"/>
-        <c:axId val="932099808"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="650686528"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="932099808"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="932099808"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="650686528"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -5985,509 +4917,6 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -6559,42 +4988,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>170657</xdr:colOff>
-      <xdr:row>280</xdr:row>
-      <xdr:rowOff>140493</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>583407</xdr:colOff>
-      <xdr:row>295</xdr:row>
-      <xdr:rowOff>145255</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="24" name="Chart 23">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1770225D-C2C5-4C43-843B-1ABB936B9967}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -6902,8 +5295,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J360"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A255" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G284" sqref="G284"/>
+    <sheetView tabSelected="1" topLeftCell="A240" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G165" sqref="G165:G260"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12987,1093 +11380,342 @@
         <v>160</v>
       </c>
     </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A263" t="s">
-        <v>229</v>
-      </c>
-      <c r="D263" t="s">
-        <v>233</v>
-      </c>
-    </row>
     <row r="264" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A264" t="s">
-        <v>223</v>
-      </c>
-      <c r="B264" t="s">
-        <v>227</v>
-      </c>
       <c r="C264" s="1"/>
-      <c r="D264" t="s">
-        <v>230</v>
-      </c>
-      <c r="E264" t="s">
-        <v>231</v>
-      </c>
-      <c r="F264" t="s">
-        <v>232</v>
-      </c>
     </row>
     <row r="265" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A265">
-        <v>1011660709</v>
-      </c>
-      <c r="B265">
-        <v>1</v>
-      </c>
-      <c r="C265" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="D265" s="1">
-        <v>1546300800</v>
-      </c>
-      <c r="E265" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="F265">
-        <f>AVERAGE(B265:B268)</f>
-        <v>128.75</v>
-      </c>
+      <c r="C265" s="1"/>
+      <c r="D265" s="1"/>
+      <c r="E265" s="1"/>
       <c r="G265" s="1"/>
     </row>
     <row r="266" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A266">
-        <v>1011660709</v>
-      </c>
-      <c r="B266">
-        <v>1</v>
-      </c>
       <c r="C266" s="1"/>
-      <c r="D266" s="1">
-        <v>1514764800</v>
-      </c>
-      <c r="E266" s="1">
-        <v>2005</v>
-      </c>
-      <c r="F266">
-        <f>AVERAGE(B269:B270)</f>
-        <v>173.5</v>
-      </c>
+      <c r="D266" s="1"/>
+      <c r="E266" s="1"/>
       <c r="G266" s="1"/>
     </row>
     <row r="267" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A267">
-        <v>1034422658</v>
-      </c>
-      <c r="B267">
-        <v>486</v>
-      </c>
       <c r="C267" s="1"/>
-      <c r="D267" s="1">
-        <v>1483228800</v>
-      </c>
-      <c r="E267" s="1">
-        <v>2006</v>
-      </c>
-      <c r="F267" s="1">
-        <v>0</v>
-      </c>
+      <c r="D267" s="1"/>
+      <c r="E267" s="1"/>
+      <c r="F267" s="1"/>
       <c r="G267" s="1"/>
     </row>
     <row r="268" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A268">
-        <v>1043968983</v>
-      </c>
-      <c r="B268">
-        <v>27</v>
-      </c>
       <c r="C268" s="1"/>
-      <c r="D268" s="1">
-        <v>1451606400</v>
-      </c>
-      <c r="E268" s="1">
-        <v>2007</v>
-      </c>
-      <c r="F268">
-        <v>0</v>
-      </c>
+      <c r="D268" s="1"/>
+      <c r="E268" s="1"/>
       <c r="G268" s="1"/>
     </row>
     <row r="269" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A269">
-        <v>1105019550</v>
-      </c>
-      <c r="B269">
-        <v>337</v>
-      </c>
-      <c r="C269" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="D269" s="1">
-        <v>1420070400</v>
-      </c>
-      <c r="E269">
-        <v>2008</v>
-      </c>
-      <c r="F269">
-        <f>B271</f>
-        <v>6</v>
-      </c>
+      <c r="C269" s="1"/>
+      <c r="D269" s="1"/>
       <c r="G269" s="1"/>
     </row>
     <row r="270" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A270">
-        <v>1176413691</v>
-      </c>
-      <c r="B270">
-        <v>10</v>
-      </c>
       <c r="C270" s="1"/>
-      <c r="D270" s="1">
-        <v>1388534400</v>
-      </c>
-      <c r="E270" s="1">
-        <v>2009</v>
-      </c>
-      <c r="F270">
-        <f>AVERAGE(B276:B277)</f>
-        <v>9.5</v>
-      </c>
+      <c r="D270" s="1"/>
+      <c r="E270" s="1"/>
       <c r="G270" s="1"/>
     </row>
     <row r="271" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A271">
-        <v>1207339321</v>
-      </c>
-      <c r="B271">
-        <v>6</v>
-      </c>
-      <c r="C271" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="D271" s="1">
-        <v>1356998400</v>
-      </c>
-      <c r="E271" s="1">
-        <v>2010</v>
-      </c>
-      <c r="F271">
-        <f>AVERAGE(B278:B286)</f>
-        <v>12.444444444444445</v>
-      </c>
+      <c r="C271" s="1"/>
+      <c r="D271" s="1"/>
+      <c r="E271" s="1"/>
       <c r="G271" s="1"/>
     </row>
     <row r="272" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A272">
-        <v>1237799935</v>
-      </c>
-      <c r="B272">
-        <v>6</v>
-      </c>
-      <c r="C272" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="D272" s="1">
-        <v>1325376000</v>
-      </c>
-      <c r="E272" s="1">
-        <v>2011</v>
-      </c>
-      <c r="F272">
-        <f>AVERAGE(B287:B295)</f>
-        <v>5.7777777777777777</v>
-      </c>
+      <c r="C272" s="1"/>
+      <c r="D272" s="1"/>
+      <c r="E272" s="1"/>
       <c r="G272" s="1"/>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A273">
-        <v>1237860221</v>
-      </c>
-      <c r="B273">
-        <v>5</v>
-      </c>
+    <row r="273" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C273" s="1"/>
-      <c r="D273" s="1">
-        <v>1293840000</v>
-      </c>
-      <c r="E273" s="1">
-        <v>2012</v>
-      </c>
-      <c r="F273">
-        <f>AVERAGE(B296:B300)</f>
-        <v>2</v>
-      </c>
+      <c r="D273" s="1"/>
+      <c r="E273" s="1"/>
       <c r="G273" s="1"/>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A274">
-        <v>1253670590</v>
-      </c>
-      <c r="B274">
-        <v>2</v>
-      </c>
+    <row r="274" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C274" s="1"/>
-      <c r="D274" s="1">
-        <v>1262304000</v>
-      </c>
-      <c r="E274" s="1">
-        <v>2013</v>
-      </c>
-      <c r="F274">
-        <f>AVERAGE(B301:B312)</f>
-        <v>3</v>
-      </c>
+      <c r="D274" s="1"/>
+      <c r="E274" s="1"/>
       <c r="G274" s="1"/>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A275">
-        <v>1256766229</v>
-      </c>
-      <c r="B275">
-        <v>1</v>
-      </c>
+    <row r="275" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C275" s="1"/>
-      <c r="D275" s="1">
-        <v>1230768000</v>
-      </c>
-      <c r="E275" s="1">
-        <v>2014</v>
-      </c>
-      <c r="F275">
-        <f>AVERAGE(B313:B318)</f>
-        <v>2.3333333333333335</v>
-      </c>
+      <c r="D275" s="1"/>
+      <c r="E275" s="1"/>
       <c r="G275" s="1"/>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A276">
-        <v>1266842558</v>
-      </c>
-      <c r="B276">
-        <v>17</v>
-      </c>
-      <c r="C276" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="D276" s="1">
-        <v>1199145600</v>
-      </c>
-      <c r="E276" s="1">
-        <v>2015</v>
-      </c>
-      <c r="F276">
-        <f>AVERAGE(B319:B328)</f>
-        <v>4.5</v>
-      </c>
+    <row r="276" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C276" s="1"/>
+      <c r="D276" s="1"/>
+      <c r="E276" s="1"/>
       <c r="G276" s="1"/>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A277">
-        <v>1283229025</v>
-      </c>
-      <c r="B277">
-        <v>2</v>
-      </c>
+    <row r="277" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C277" s="1"/>
-      <c r="D277" s="1">
-        <v>1167609600</v>
-      </c>
-      <c r="E277" s="1">
-        <v>2016</v>
-      </c>
-      <c r="F277">
-        <f>AVERAGE(B329:B344)</f>
-        <v>2.8125</v>
-      </c>
+      <c r="D277" s="1"/>
+      <c r="E277" s="1"/>
       <c r="G277" s="1"/>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A278">
-        <v>1297682135</v>
-      </c>
-      <c r="B278">
-        <v>2</v>
-      </c>
-      <c r="C278" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="D278" s="1">
-        <v>1136073600</v>
-      </c>
-      <c r="E278" s="1">
-        <v>2017</v>
-      </c>
-      <c r="F278">
-        <f>AVERAGE(B329:B344)</f>
-        <v>2.8125</v>
-      </c>
+    <row r="278" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C278" s="1"/>
+      <c r="D278" s="1"/>
+      <c r="E278" s="1"/>
       <c r="G278" s="1"/>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A279">
-        <v>1298894081</v>
-      </c>
-      <c r="B279">
-        <v>2</v>
-      </c>
+    <row r="279" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C279" s="1"/>
-      <c r="D279" s="1">
-        <v>1104537600</v>
-      </c>
-      <c r="E279" s="1">
-        <v>2018</v>
-      </c>
-      <c r="F279">
-        <f>AVERAGE(B345:B356)</f>
-        <v>1.4166666666666667</v>
-      </c>
+      <c r="D279" s="1"/>
+      <c r="E279" s="1"/>
       <c r="G279" s="1"/>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A280">
-        <v>1299789239</v>
-      </c>
-      <c r="B280">
-        <v>44</v>
-      </c>
+    <row r="280" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C280" s="1"/>
-      <c r="E280" s="1">
-        <v>2019</v>
-      </c>
-      <c r="F280">
-        <f>AVERAGE(B357:B360)</f>
-        <v>1.75</v>
-      </c>
+      <c r="E280" s="1"/>
       <c r="G280" s="1"/>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A281">
-        <v>1306259723</v>
-      </c>
-      <c r="B281">
-        <v>4</v>
-      </c>
+    <row r="281" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C281" s="1"/>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A282">
-        <v>1314799558</v>
-      </c>
-      <c r="B282">
-        <v>1</v>
-      </c>
+    <row r="282" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C282" s="1"/>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A283">
-        <v>1315200408</v>
-      </c>
-      <c r="B283">
-        <v>1</v>
-      </c>
+    <row r="283" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C283" s="1"/>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A284">
-        <v>1315445249</v>
-      </c>
-      <c r="B284">
-        <v>56</v>
-      </c>
+    <row r="284" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C284" s="1"/>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A285">
-        <v>1320407798</v>
-      </c>
-      <c r="B285">
-        <v>1</v>
-      </c>
+    <row r="285" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C285" s="1"/>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A286">
-        <v>1322330353</v>
-      </c>
-      <c r="B286">
-        <v>1</v>
-      </c>
+    <row r="286" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C286" s="1"/>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A287">
-        <v>1332474676</v>
-      </c>
-      <c r="B287">
-        <v>2</v>
-      </c>
-      <c r="C287" s="1" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A288">
-        <v>1332980051</v>
-      </c>
-      <c r="B288">
-        <v>10</v>
-      </c>
+    <row r="287" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C287" s="1"/>
+    </row>
+    <row r="288" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C288" s="1"/>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A289">
-        <v>1333947798</v>
-      </c>
-      <c r="B289">
-        <v>25</v>
-      </c>
+    <row r="289" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C289" s="1"/>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A290">
-        <v>1342094874</v>
-      </c>
-      <c r="B290">
-        <v>4</v>
-      </c>
+    <row r="290" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C290" s="1"/>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A291">
-        <v>1342637455</v>
-      </c>
-      <c r="B291">
-        <v>1</v>
-      </c>
+    <row r="291" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C291" s="1"/>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A292">
-        <v>1346341630</v>
-      </c>
-      <c r="B292">
-        <v>3</v>
-      </c>
+    <row r="292" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C292" s="1"/>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A293">
-        <v>1348000436</v>
-      </c>
-      <c r="B293">
-        <v>1</v>
-      </c>
+    <row r="293" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C293" s="1"/>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A294">
-        <v>1351114087</v>
-      </c>
-      <c r="B294">
-        <v>4</v>
-      </c>
+    <row r="294" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C294" s="1"/>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A295">
-        <v>1354381046</v>
-      </c>
-      <c r="B295">
-        <v>2</v>
-      </c>
+    <row r="295" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C295" s="1"/>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A296">
-        <v>1357278519</v>
-      </c>
-      <c r="B296">
-        <v>3</v>
-      </c>
-      <c r="C296" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A297">
-        <v>1360718707</v>
-      </c>
-      <c r="B297">
-        <v>1</v>
-      </c>
+    <row r="296" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C296" s="1"/>
+    </row>
+    <row r="297" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C297" s="1"/>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A298">
-        <v>1370204000</v>
-      </c>
-      <c r="B298">
-        <v>3</v>
-      </c>
+    <row r="298" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C298" s="1"/>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A299">
-        <v>1370826833</v>
-      </c>
-      <c r="B299">
-        <v>2</v>
-      </c>
+    <row r="299" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C299" s="1"/>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A300">
-        <v>1381535033</v>
-      </c>
-      <c r="B300">
-        <v>1</v>
-      </c>
+    <row r="300" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C300" s="1"/>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A301">
-        <v>1389397070</v>
-      </c>
-      <c r="B301">
-        <v>1</v>
-      </c>
-      <c r="C301" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A302">
-        <v>1390609370</v>
-      </c>
-      <c r="B302">
-        <v>10</v>
-      </c>
+    <row r="301" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C301" s="1"/>
+    </row>
+    <row r="302" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C302" s="1"/>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A303">
-        <v>1392085662</v>
-      </c>
-      <c r="B303">
-        <v>1</v>
-      </c>
+    <row r="303" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C303" s="1"/>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A304">
-        <v>1394046157</v>
-      </c>
-      <c r="B304">
-        <v>2</v>
-      </c>
+    <row r="304" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C304" s="1"/>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A305">
-        <v>1402921179</v>
-      </c>
-      <c r="B305">
-        <v>1</v>
-      </c>
+    <row r="305" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C305" s="1"/>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A306">
-        <v>1406140457</v>
-      </c>
-      <c r="B306">
-        <v>1</v>
-      </c>
+    <row r="306" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C306" s="1"/>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A307">
-        <v>1408490281</v>
-      </c>
-      <c r="B307">
-        <v>1</v>
-      </c>
+    <row r="307" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C307" s="1"/>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A308">
-        <v>1409153544</v>
-      </c>
-      <c r="B308">
-        <v>2</v>
-      </c>
+    <row r="308" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C308" s="1"/>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A309">
-        <v>1409750299</v>
-      </c>
-      <c r="B309">
-        <v>1</v>
-      </c>
+    <row r="309" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C309" s="1"/>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A310">
-        <v>1413278657</v>
-      </c>
-      <c r="B310">
-        <v>8</v>
-      </c>
+    <row r="310" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C310" s="1"/>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A311">
-        <v>1417504653</v>
-      </c>
-      <c r="B311">
-        <v>7</v>
-      </c>
+    <row r="311" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C311" s="1"/>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A312">
-        <v>1417801488</v>
-      </c>
-      <c r="B312">
-        <v>1</v>
-      </c>
+    <row r="312" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C312" s="1"/>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A313">
-        <v>1428876281</v>
-      </c>
-      <c r="B313">
-        <v>1</v>
-      </c>
-      <c r="C313" s="1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A314">
-        <v>1430510164</v>
-      </c>
-      <c r="B314">
-        <v>1</v>
-      </c>
+    <row r="313" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C313" s="1"/>
+    </row>
+    <row r="314" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C314" s="1"/>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A315">
-        <v>1430925380</v>
-      </c>
-      <c r="B315">
-        <v>1</v>
-      </c>
+    <row r="315" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C315" s="1"/>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A316">
-        <v>1434653100</v>
-      </c>
-      <c r="B316">
-        <v>2</v>
-      </c>
+    <row r="316" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C316" s="1"/>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A317">
-        <v>1442661280</v>
-      </c>
-      <c r="B317">
-        <v>2</v>
-      </c>
+    <row r="317" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C317" s="1"/>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A318">
-        <v>1449368275</v>
-      </c>
-      <c r="B318">
-        <v>7</v>
-      </c>
+    <row r="318" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C318" s="1"/>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A319">
-        <v>1452698004</v>
-      </c>
-      <c r="B319">
-        <v>7</v>
-      </c>
-      <c r="C319" s="1" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A320">
-        <v>1453435001</v>
-      </c>
-      <c r="B320">
-        <v>1</v>
-      </c>
+    <row r="319" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C319" s="1"/>
+    </row>
+    <row r="320" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C320" s="1"/>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A321">
-        <v>1454464594</v>
-      </c>
-      <c r="B321">
-        <v>3</v>
-      </c>
+    <row r="321" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C321" s="1"/>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A322">
-        <v>1454782656</v>
-      </c>
-      <c r="B322">
-        <v>3</v>
-      </c>
+    <row r="322" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C322" s="1"/>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A323">
-        <v>1457612258</v>
-      </c>
-      <c r="B323">
-        <v>22</v>
-      </c>
+    <row r="323" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C323" s="1"/>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A324">
-        <v>1461716054</v>
-      </c>
-      <c r="B324">
-        <v>3</v>
-      </c>
+    <row r="324" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C324" s="1"/>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A325">
-        <v>1465194671</v>
-      </c>
-      <c r="B325">
-        <v>1</v>
-      </c>
+    <row r="325" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C325" s="1"/>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A326">
-        <v>1466016288</v>
-      </c>
-      <c r="B326">
-        <v>1</v>
-      </c>
+    <row r="326" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C326" s="1"/>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A327">
-        <v>1467255205</v>
-      </c>
-      <c r="B327">
-        <v>2</v>
-      </c>
+    <row r="327" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C327" s="1"/>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A328">
-        <v>1477854720</v>
-      </c>
-      <c r="B328">
-        <v>2</v>
-      </c>
+    <row r="328" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C328" s="1"/>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A329">
-        <v>1488826636</v>
-      </c>
-      <c r="B329">
-        <v>1</v>
-      </c>
-      <c r="C329" s="1" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A330">
-        <v>1490184268</v>
-      </c>
-      <c r="B330">
-        <v>1</v>
-      </c>
+    <row r="329" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C329" s="1"/>
+    </row>
+    <row r="330" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C330" s="1"/>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A331">
-        <v>1496071665</v>
-      </c>
-      <c r="B331">
-        <v>1</v>
-      </c>
+    <row r="331" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C331" s="1"/>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A332">
-        <v>1496349016</v>
-      </c>
-      <c r="B332">
-        <v>1</v>
-      </c>
+    <row r="332" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C332" s="1"/>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A333">
-        <v>1498090728</v>
-      </c>
-      <c r="B333">
-        <v>1</v>
-      </c>
+    <row r="333" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C333" s="1"/>
     </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A334">
-        <v>1499234528</v>
-      </c>
-      <c r="B334">
-        <v>8</v>
-      </c>
+    <row r="334" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C334" s="1"/>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A335">
-        <v>1500339182</v>
-      </c>
-      <c r="B335">
-        <v>3</v>
-      </c>
+    <row r="335" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C335" s="1"/>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A336">
-        <v>1500537826</v>
-      </c>
-      <c r="B336">
-        <v>20</v>
-      </c>
+    <row r="336" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C336" s="1"/>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A337">
-        <v>1502494929</v>
-      </c>
-      <c r="B337">
-        <v>1</v>
-      </c>
+    <row r="337" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C337" s="1"/>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A338">
-        <v>1504609799</v>
-      </c>
-      <c r="B338">
-        <v>1</v>
-      </c>
+    <row r="338" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C338" s="1"/>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A339">
-        <v>1509043599</v>
-      </c>
-      <c r="B339">
-        <v>1</v>
-      </c>
+    <row r="339" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C339" s="1"/>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A340">
-        <v>1509980917</v>
-      </c>
-      <c r="B340">
-        <v>1</v>
-      </c>
+    <row r="340" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C340" s="1"/>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A341">
-        <v>1510627730</v>
-      </c>
-      <c r="B341">
-        <v>1</v>
-      </c>
+    <row r="341" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C341" s="1"/>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A342">
-        <v>1513433461</v>
-      </c>
-      <c r="B342">
-        <v>1</v>
-      </c>
+    <row r="342" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C342" s="1"/>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A343">
-        <v>1513502366</v>
-      </c>
-      <c r="B343">
-        <v>2</v>
-      </c>
+    <row r="343" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C343" s="1"/>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A344">
-        <v>1514105016</v>
-      </c>
-      <c r="B344">
-        <v>1</v>
-      </c>
+    <row r="344" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C344" s="1"/>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A345">
-        <v>1515425925</v>
-      </c>
-      <c r="B345">
-        <v>1</v>
-      </c>
-      <c r="C345" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A346">
-        <v>1520258352</v>
-      </c>
-      <c r="B346">
-        <v>1</v>
-      </c>
+    <row r="345" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C345" s="1"/>
+    </row>
+    <row r="346" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C346" s="1"/>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A347">
-        <v>1520325457</v>
-      </c>
-      <c r="B347">
-        <v>1</v>
-      </c>
+    <row r="347" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C347" s="1"/>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A348">
-        <v>1521427474</v>
-      </c>
-      <c r="B348">
-        <v>4</v>
-      </c>
+    <row r="348" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C348" s="1"/>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A349">
-        <v>1524250714</v>
-      </c>
-      <c r="B349">
-        <v>1</v>
-      </c>
+    <row r="349" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C349" s="1"/>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A350">
-        <v>1532509459</v>
-      </c>
-      <c r="B350">
-        <v>1</v>
-      </c>
+    <row r="350" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C350" s="1"/>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A351">
-        <v>1533588545</v>
-      </c>
-      <c r="B351">
-        <v>2</v>
-      </c>
+    <row r="351" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C351" s="1"/>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A352">
-        <v>1540966450</v>
-      </c>
-      <c r="B352">
-        <v>2</v>
-      </c>
+    <row r="352" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C352" s="1"/>
     </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A353">
-        <v>1541901013</v>
-      </c>
-      <c r="B353">
-        <v>1</v>
-      </c>
+    <row r="353" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C353" s="1"/>
     </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A354">
-        <v>1542819512</v>
-      </c>
-      <c r="B354">
-        <v>1</v>
-      </c>
+    <row r="354" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C354" s="1"/>
     </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A355">
-        <v>1543443398</v>
-      </c>
-      <c r="B355">
-        <v>1</v>
-      </c>
+    <row r="355" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C355" s="1"/>
     </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A356">
-        <v>1544565019</v>
-      </c>
-      <c r="B356">
-        <v>1</v>
-      </c>
+    <row r="356" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C356" s="1"/>
     </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A357">
-        <v>1548861450</v>
-      </c>
-      <c r="B357">
-        <v>2</v>
-      </c>
-      <c r="C357" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A358">
-        <v>1552745223</v>
-      </c>
-      <c r="B358">
-        <v>1</v>
-      </c>
+    <row r="357" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C357" s="1"/>
+    </row>
+    <row r="358" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C358" s="1"/>
     </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A359">
-        <v>1555035076</v>
-      </c>
-      <c r="B359">
-        <v>3</v>
-      </c>
+    <row r="359" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C359" s="1"/>
     </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A360">
-        <v>1558985607</v>
-      </c>
-      <c r="B360">
-        <v>1</v>
-      </c>
+    <row r="360" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C360" s="1"/>
     </row>
   </sheetData>

--- a/results/SConstruct-Graph.xlsx
+++ b/results/SConstruct-Graph.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David Lenovo\Documents\code\SCons-Make-Research\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4FF2687-F976-41D1-AE32-40753FAED133}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C797CAB8-7458-4855-B1A0-C267CF3D75F9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="230">
   <si>
     <t>Repository name</t>
   </si>
@@ -714,7 +714,10 @@
     <t xml:space="preserve"> Sum No. Commits</t>
   </si>
   <si>
-    <t>Repository age (EPOCH) (Sorted)</t>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Median</t>
   </si>
 </sst>
 </file>
@@ -1262,2666 +1265,6 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="0"/>
-          <c:xVal>
-            <c:numRef>
-              <c:f>SConstruct!$J$165:$J$260</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="96"/>
-                <c:pt idx="0">
-                  <c:v>1011660709</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1011660709</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1034422658</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1043968983</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1105019550</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1176413691</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1207339321</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1237799935</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1237860221</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1253670590</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1256766229</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1266842558</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1283229025</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1297682135</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1298894081</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1299789239</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1306259723</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1314799558</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1315200408</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1315445249</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1320407798</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1322330353</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1332474676</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1332980051</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1333947798</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1342094874</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1342637455</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1346341630</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1348000436</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1351114087</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1354381046</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1357278519</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>1360718707</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>1370204000</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>1370826833</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>1381535033</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>1389397070</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>1390609370</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>1392085662</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>1394046157</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>1402921179</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>1406140457</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>1408490281</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>1409153544</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>1409750299</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>1413278657</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>1417504653</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>1417801488</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>1428876281</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>1430510164</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>1430925380</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>1434653100</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>1442661280</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>1449368275</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>1452698004</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>1453435001</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>1454464594</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>1454782656</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>1457612258</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>1461716054</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>1465194671</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>1466016288</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>1467255205</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>1477854720</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>1488826636</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>1490184268</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>1496071665</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>1496349016</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>1498090728</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>1499234528</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>1500339182</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>1500537826</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>1502494929</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>1504609799</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>1509043599</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>1509980917</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>1510627730</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>1513433461</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>1513502366</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>1514105016</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>1515425925</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>1520258352</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>1520325457</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>1521427474</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>1524250714</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>1532509459</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>1533588545</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>1540966450</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>1541901013</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>1542819512</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>1543443398</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>1544565019</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>1548861450</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>1552745223</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>1555035076</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>1558985607</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>SConstruct!$G$165:$G$260</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="96"/>
-                <c:pt idx="0">
-                  <c:v>235</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>240</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>6696</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>129</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>622</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>103</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>260</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>1920</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>17</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-7DA6-41A0-A862-7076377B1065}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="1"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:xVal>
-            <c:numRef>
-              <c:f>SConstruct!$J$165:$J$260</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="96"/>
-                <c:pt idx="0">
-                  <c:v>1011660709</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1011660709</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1034422658</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1043968983</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1105019550</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1176413691</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1207339321</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1237799935</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1237860221</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1253670590</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1256766229</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1266842558</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1283229025</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1297682135</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1298894081</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1299789239</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1306259723</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1314799558</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1315200408</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1315445249</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1320407798</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1322330353</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1332474676</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1332980051</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1333947798</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1342094874</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1342637455</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1346341630</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1348000436</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1351114087</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1354381046</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1357278519</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>1360718707</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>1370204000</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>1370826833</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>1381535033</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>1389397070</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>1390609370</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>1392085662</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>1394046157</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>1402921179</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>1406140457</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>1408490281</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>1409153544</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>1409750299</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>1413278657</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>1417504653</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>1417801488</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>1428876281</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>1430510164</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>1430925380</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>1434653100</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>1442661280</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>1449368275</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>1452698004</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>1453435001</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>1454464594</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>1454782656</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>1457612258</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>1461716054</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>1465194671</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>1466016288</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>1467255205</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>1477854720</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>1488826636</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>1490184268</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>1496071665</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>1496349016</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>1498090728</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>1499234528</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>1500339182</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>1500537826</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>1502494929</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>1504609799</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>1509043599</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>1509980917</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>1510627730</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>1513433461</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>1513502366</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>1514105016</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>1515425925</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>1520258352</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>1520325457</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>1521427474</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>1524250714</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>1532509459</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>1533588545</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>1540966450</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>1541901013</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>1542819512</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>1543443398</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>1544565019</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>1548861450</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>1552745223</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>1555035076</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>1558985607</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>SConstruct!$G$165:$G$260</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="96"/>
-                <c:pt idx="0">
-                  <c:v>235</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>240</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>6696</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>129</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>622</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>103</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>260</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>1920</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>17</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-7DA6-41A0-A862-7076377B1065}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="2"/>
-          <c:xVal>
-            <c:numRef>
-              <c:f>SConstruct!$J$165:$J$260</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="96"/>
-                <c:pt idx="0">
-                  <c:v>1011660709</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1011660709</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1034422658</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1043968983</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1105019550</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1176413691</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1207339321</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1237799935</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1237860221</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1253670590</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1256766229</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1266842558</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1283229025</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1297682135</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1298894081</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1299789239</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1306259723</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1314799558</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1315200408</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1315445249</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1320407798</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1322330353</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1332474676</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1332980051</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1333947798</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1342094874</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1342637455</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1346341630</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1348000436</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1351114087</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1354381046</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1357278519</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>1360718707</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>1370204000</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>1370826833</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>1381535033</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>1389397070</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>1390609370</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>1392085662</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>1394046157</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>1402921179</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>1406140457</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>1408490281</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>1409153544</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>1409750299</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>1413278657</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>1417504653</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>1417801488</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>1428876281</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>1430510164</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>1430925380</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>1434653100</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>1442661280</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>1449368275</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>1452698004</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>1453435001</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>1454464594</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>1454782656</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>1457612258</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>1461716054</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>1465194671</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>1466016288</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>1467255205</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>1477854720</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>1488826636</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>1490184268</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>1496071665</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>1496349016</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>1498090728</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>1499234528</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>1500339182</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>1500537826</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>1502494929</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>1504609799</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>1509043599</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>1509980917</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>1510627730</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>1513433461</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>1513502366</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>1514105016</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>1515425925</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>1520258352</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>1520325457</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>1521427474</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>1524250714</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>1532509459</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>1533588545</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>1540966450</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>1541901013</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>1542819512</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>1543443398</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>1544565019</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>1548861450</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>1552745223</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>1555035076</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>1558985607</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>SConstruct!$G$165:$G$260</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="96"/>
-                <c:pt idx="0">
-                  <c:v>235</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>240</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>6696</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>129</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>622</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>103</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>260</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>1920</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>17</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-7DA6-41A0-A862-7076377B1065}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="3"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>SConstruct!$J$165:$J$260</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="96"/>
-                <c:pt idx="0">
-                  <c:v>1011660709</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1011660709</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1034422658</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1043968983</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1105019550</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1176413691</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1207339321</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1237799935</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1237860221</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1253670590</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1256766229</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1266842558</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1283229025</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1297682135</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1298894081</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1299789239</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1306259723</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1314799558</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1315200408</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1315445249</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1320407798</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1322330353</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1332474676</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1332980051</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1333947798</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1342094874</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1342637455</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1346341630</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1348000436</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1351114087</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1354381046</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1357278519</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>1360718707</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>1370204000</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>1370826833</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>1381535033</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>1389397070</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>1390609370</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>1392085662</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>1394046157</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>1402921179</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>1406140457</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>1408490281</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>1409153544</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>1409750299</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>1413278657</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>1417504653</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>1417801488</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>1428876281</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>1430510164</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>1430925380</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>1434653100</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>1442661280</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>1449368275</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>1452698004</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>1453435001</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>1454464594</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>1454782656</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>1457612258</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>1461716054</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>1465194671</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>1466016288</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>1467255205</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>1477854720</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>1488826636</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>1490184268</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>1496071665</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>1496349016</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>1498090728</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>1499234528</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>1500339182</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>1500537826</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>1502494929</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>1504609799</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>1509043599</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>1509980917</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>1510627730</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>1513433461</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>1513502366</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>1514105016</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>1515425925</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>1520258352</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>1520325457</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>1521427474</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>1524250714</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>1532509459</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>1533588545</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>1540966450</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>1541901013</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>1542819512</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>1543443398</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>1544565019</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>1548861450</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>1552745223</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>1555035076</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>1558985607</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>SConstruct!$G$165:$G$260</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="96"/>
-                <c:pt idx="0">
-                  <c:v>235</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>240</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>6696</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>129</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>622</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>103</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>260</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>1920</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>17</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-7DA6-41A0-A862-7076377B1065}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="879026064"/>
-        <c:axId val="884723136"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="879026064"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="1580000000"/>
-          <c:min val="960000000"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="884723136"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="884723136"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="879026064"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst/>
-  </c:chart>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4921,42 +2264,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>267609</xdr:colOff>
-      <xdr:row>164</xdr:row>
-      <xdr:rowOff>147864</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>585109</xdr:colOff>
-      <xdr:row>179</xdr:row>
-      <xdr:rowOff>169636</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D932E5B-0076-465C-B1DC-8F9B1C991A30}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>191635</xdr:colOff>
       <xdr:row>299</xdr:row>
@@ -4987,7 +2294,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5293,10 +2600,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J360"/>
+  <dimension ref="A1:H360"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A240" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G165" sqref="G165:G260"/>
+    <sheetView tabSelected="1" topLeftCell="A239" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F263" sqref="F263"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8519,7 +5826,7 @@
         <v>6093</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>217</v>
       </c>
@@ -8539,7 +5846,7 @@
         <v>1086</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>218</v>
       </c>
@@ -8559,7 +5866,7 @@
         <v>1372</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>219</v>
       </c>
@@ -8584,11 +5891,8 @@
       <c r="H164" t="s">
         <v>227</v>
       </c>
-      <c r="J164" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>6</v>
       </c>
@@ -8613,11 +5917,8 @@
       <c r="H165">
         <v>3</v>
       </c>
-      <c r="J165">
-        <v>1011660709</v>
-      </c>
-    </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>8</v>
       </c>
@@ -8642,11 +5943,8 @@
       <c r="H166">
         <v>7</v>
       </c>
-      <c r="J166">
-        <v>1011660709</v>
-      </c>
-    </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>16</v>
       </c>
@@ -8671,11 +5969,8 @@
       <c r="H167">
         <v>2</v>
       </c>
-      <c r="J167">
-        <v>1034422658</v>
-      </c>
-    </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>19</v>
       </c>
@@ -8700,11 +5995,8 @@
       <c r="H168">
         <v>1</v>
       </c>
-      <c r="J168">
-        <v>1043968983</v>
-      </c>
-    </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>21</v>
       </c>
@@ -8729,11 +6021,8 @@
       <c r="H169">
         <v>1</v>
       </c>
-      <c r="J169">
-        <v>1105019550</v>
-      </c>
-    </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>23</v>
       </c>
@@ -8758,11 +6047,8 @@
       <c r="H170">
         <v>6</v>
       </c>
-      <c r="J170">
-        <v>1176413691</v>
-      </c>
-    </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>26</v>
       </c>
@@ -8787,11 +6073,8 @@
       <c r="H171">
         <v>1</v>
       </c>
-      <c r="J171">
-        <v>1207339321</v>
-      </c>
-    </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>28</v>
       </c>
@@ -8816,11 +6099,8 @@
       <c r="H172">
         <v>1</v>
       </c>
-      <c r="J172">
-        <v>1237799935</v>
-      </c>
-    </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>30</v>
       </c>
@@ -8845,11 +6125,8 @@
       <c r="H173">
         <v>1</v>
       </c>
-      <c r="J173">
-        <v>1237860221</v>
-      </c>
-    </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>32</v>
       </c>
@@ -8874,11 +6151,8 @@
       <c r="H174">
         <v>1</v>
       </c>
-      <c r="J174">
-        <v>1253670590</v>
-      </c>
-    </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>34</v>
       </c>
@@ -8903,11 +6177,8 @@
       <c r="H175">
         <v>2</v>
       </c>
-      <c r="J175">
-        <v>1256766229</v>
-      </c>
-    </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>37</v>
       </c>
@@ -8932,11 +6203,8 @@
       <c r="H176">
         <v>1</v>
       </c>
-      <c r="J176">
-        <v>1266842558</v>
-      </c>
-    </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>39</v>
       </c>
@@ -8961,11 +6229,8 @@
       <c r="H177">
         <v>10</v>
       </c>
-      <c r="J177">
-        <v>1283229025</v>
-      </c>
-    </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>40</v>
       </c>
@@ -8990,11 +6255,8 @@
       <c r="H178">
         <v>486</v>
       </c>
-      <c r="J178">
-        <v>1297682135</v>
-      </c>
-    </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>41</v>
       </c>
@@ -9019,11 +6281,8 @@
       <c r="H179">
         <v>1</v>
       </c>
-      <c r="J179">
-        <v>1298894081</v>
-      </c>
-    </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>43</v>
       </c>
@@ -9048,11 +6307,8 @@
       <c r="H180">
         <v>1</v>
       </c>
-      <c r="J180">
-        <v>1299789239</v>
-      </c>
-    </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>45</v>
       </c>
@@ -9077,11 +6333,8 @@
       <c r="H181">
         <v>1</v>
       </c>
-      <c r="J181">
-        <v>1306259723</v>
-      </c>
-    </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>47</v>
       </c>
@@ -9106,11 +6359,8 @@
       <c r="H182">
         <v>1</v>
       </c>
-      <c r="J182">
-        <v>1314799558</v>
-      </c>
-    </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>49</v>
       </c>
@@ -9135,11 +6385,8 @@
       <c r="H183">
         <v>10</v>
       </c>
-      <c r="J183">
-        <v>1315200408</v>
-      </c>
-    </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>52</v>
       </c>
@@ -9164,11 +6411,8 @@
       <c r="H184">
         <v>2</v>
       </c>
-      <c r="J184">
-        <v>1315445249</v>
-      </c>
-    </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>55</v>
       </c>
@@ -9193,11 +6437,8 @@
       <c r="H185">
         <v>2</v>
       </c>
-      <c r="J185">
-        <v>1320407798</v>
-      </c>
-    </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>57</v>
       </c>
@@ -9222,11 +6463,8 @@
       <c r="H186">
         <v>8</v>
       </c>
-      <c r="J186">
-        <v>1322330353</v>
-      </c>
-    </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>66</v>
       </c>
@@ -9251,11 +6489,8 @@
       <c r="H187">
         <v>2</v>
       </c>
-      <c r="J187">
-        <v>1332474676</v>
-      </c>
-    </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>69</v>
       </c>
@@ -9280,11 +6515,8 @@
       <c r="H188">
         <v>1</v>
       </c>
-      <c r="J188">
-        <v>1332980051</v>
-      </c>
-    </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>70</v>
       </c>
@@ -9309,11 +6541,8 @@
       <c r="H189">
         <v>1</v>
       </c>
-      <c r="J189">
-        <v>1333947798</v>
-      </c>
-    </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>71</v>
       </c>
@@ -9338,11 +6567,8 @@
       <c r="H190">
         <v>1</v>
       </c>
-      <c r="J190">
-        <v>1342094874</v>
-      </c>
-    </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>73</v>
       </c>
@@ -9367,11 +6593,8 @@
       <c r="H191">
         <v>22</v>
       </c>
-      <c r="J191">
-        <v>1342637455</v>
-      </c>
-    </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>93</v>
       </c>
@@ -9396,11 +6619,8 @@
       <c r="H192">
         <v>1</v>
       </c>
-      <c r="J192">
-        <v>1346341630</v>
-      </c>
-    </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>95</v>
       </c>
@@ -9425,11 +6645,8 @@
       <c r="H193">
         <v>2</v>
       </c>
-      <c r="J193">
-        <v>1348000436</v>
-      </c>
-    </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>98</v>
       </c>
@@ -9454,11 +6671,8 @@
       <c r="H194">
         <v>2</v>
       </c>
-      <c r="J194">
-        <v>1351114087</v>
-      </c>
-    </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>101</v>
       </c>
@@ -9483,11 +6697,8 @@
       <c r="H195">
         <v>1</v>
       </c>
-      <c r="J195">
-        <v>1354381046</v>
-      </c>
-    </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>103</v>
       </c>
@@ -9512,11 +6723,8 @@
       <c r="H196">
         <v>1</v>
       </c>
-      <c r="J196">
-        <v>1357278519</v>
-      </c>
-    </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>104</v>
       </c>
@@ -9541,11 +6749,8 @@
       <c r="H197">
         <v>1</v>
       </c>
-      <c r="J197">
-        <v>1360718707</v>
-      </c>
-    </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>105</v>
       </c>
@@ -9570,11 +6775,8 @@
       <c r="H198">
         <v>1</v>
       </c>
-      <c r="J198">
-        <v>1370204000</v>
-      </c>
-    </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>107</v>
       </c>
@@ -9599,11 +6801,8 @@
       <c r="H199">
         <v>1</v>
       </c>
-      <c r="J199">
-        <v>1370826833</v>
-      </c>
-    </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>109</v>
       </c>
@@ -9628,11 +6827,8 @@
       <c r="H200">
         <v>3</v>
       </c>
-      <c r="J200">
-        <v>1381535033</v>
-      </c>
-    </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>110</v>
       </c>
@@ -9657,11 +6853,8 @@
       <c r="H201">
         <v>1</v>
       </c>
-      <c r="J201">
-        <v>1389397070</v>
-      </c>
-    </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>111</v>
       </c>
@@ -9686,11 +6879,8 @@
       <c r="H202">
         <v>2</v>
       </c>
-      <c r="J202">
-        <v>1390609370</v>
-      </c>
-    </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>114</v>
       </c>
@@ -9715,11 +6905,8 @@
       <c r="H203">
         <v>1</v>
       </c>
-      <c r="J203">
-        <v>1392085662</v>
-      </c>
-    </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>116</v>
       </c>
@@ -9744,11 +6931,8 @@
       <c r="H204">
         <v>4</v>
       </c>
-      <c r="J204">
-        <v>1394046157</v>
-      </c>
-    </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>117</v>
       </c>
@@ -9773,11 +6957,8 @@
       <c r="H205">
         <v>2</v>
       </c>
-      <c r="J205">
-        <v>1402921179</v>
-      </c>
-    </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>118</v>
       </c>
@@ -9802,11 +6983,8 @@
       <c r="H206">
         <v>2</v>
       </c>
-      <c r="J206">
-        <v>1406140457</v>
-      </c>
-    </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>119</v>
       </c>
@@ -9831,11 +7009,8 @@
       <c r="H207">
         <v>2</v>
       </c>
-      <c r="J207">
-        <v>1408490281</v>
-      </c>
-    </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>121</v>
       </c>
@@ -9860,11 +7035,8 @@
       <c r="H208">
         <v>1</v>
       </c>
-      <c r="J208">
-        <v>1409153544</v>
-      </c>
-    </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>123</v>
       </c>
@@ -9889,11 +7061,8 @@
       <c r="H209">
         <v>2</v>
       </c>
-      <c r="J209">
-        <v>1409750299</v>
-      </c>
-    </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>124</v>
       </c>
@@ -9918,11 +7087,8 @@
       <c r="H210">
         <v>1</v>
       </c>
-      <c r="J210">
-        <v>1413278657</v>
-      </c>
-    </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>125</v>
       </c>
@@ -9947,11 +7113,8 @@
       <c r="H211">
         <v>27</v>
       </c>
-      <c r="J211">
-        <v>1417504653</v>
-      </c>
-    </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>127</v>
       </c>
@@ -9976,11 +7139,8 @@
       <c r="H212">
         <v>8</v>
       </c>
-      <c r="J212">
-        <v>1417801488</v>
-      </c>
-    </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>136</v>
       </c>
@@ -10005,11 +7165,8 @@
       <c r="H213">
         <v>4</v>
       </c>
-      <c r="J213">
-        <v>1428876281</v>
-      </c>
-    </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>141</v>
       </c>
@@ -10034,11 +7191,8 @@
       <c r="H214">
         <v>17</v>
       </c>
-      <c r="J214">
-        <v>1430510164</v>
-      </c>
-    </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>144</v>
       </c>
@@ -10063,11 +7217,8 @@
       <c r="H215">
         <v>1</v>
       </c>
-      <c r="J215">
-        <v>1430925380</v>
-      </c>
-    </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>146</v>
       </c>
@@ -10092,11 +7243,8 @@
       <c r="H216">
         <v>1</v>
       </c>
-      <c r="J216">
-        <v>1434653100</v>
-      </c>
-    </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>147</v>
       </c>
@@ -10121,11 +7269,8 @@
       <c r="H217">
         <v>1</v>
       </c>
-      <c r="J217">
-        <v>1442661280</v>
-      </c>
-    </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>148</v>
       </c>
@@ -10150,11 +7295,8 @@
       <c r="H218">
         <v>10</v>
       </c>
-      <c r="J218">
-        <v>1449368275</v>
-      </c>
-    </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>149</v>
       </c>
@@ -10179,11 +7321,8 @@
       <c r="H219">
         <v>1</v>
       </c>
-      <c r="J219">
-        <v>1452698004</v>
-      </c>
-    </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>151</v>
       </c>
@@ -10208,11 +7347,8 @@
       <c r="H220">
         <v>2</v>
       </c>
-      <c r="J220">
-        <v>1453435001</v>
-      </c>
-    </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>154</v>
       </c>
@@ -10237,11 +7373,8 @@
       <c r="H221">
         <v>1</v>
       </c>
-      <c r="J221">
-        <v>1454464594</v>
-      </c>
-    </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>156</v>
       </c>
@@ -10266,11 +7399,8 @@
       <c r="H222">
         <v>1</v>
       </c>
-      <c r="J222">
-        <v>1454782656</v>
-      </c>
-    </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>157</v>
       </c>
@@ -10295,11 +7425,8 @@
       <c r="H223">
         <v>1</v>
       </c>
-      <c r="J223">
-        <v>1457612258</v>
-      </c>
-    </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>158</v>
       </c>
@@ -10324,11 +7451,8 @@
       <c r="H224">
         <v>1</v>
       </c>
-      <c r="J224">
-        <v>1461716054</v>
-      </c>
-    </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>159</v>
       </c>
@@ -10353,11 +7477,8 @@
       <c r="H225">
         <v>3</v>
       </c>
-      <c r="J225">
-        <v>1465194671</v>
-      </c>
-    </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>164</v>
       </c>
@@ -10382,11 +7503,8 @@
       <c r="H226">
         <v>1</v>
       </c>
-      <c r="J226">
-        <v>1466016288</v>
-      </c>
-    </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>166</v>
       </c>
@@ -10411,11 +7529,8 @@
       <c r="H227">
         <v>4</v>
       </c>
-      <c r="J227">
-        <v>1467255205</v>
-      </c>
-    </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>168</v>
       </c>
@@ -10440,11 +7555,8 @@
       <c r="H228">
         <v>2</v>
       </c>
-      <c r="J228">
-        <v>1477854720</v>
-      </c>
-    </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>169</v>
       </c>
@@ -10469,11 +7581,8 @@
       <c r="H229">
         <v>1</v>
       </c>
-      <c r="J229">
-        <v>1488826636</v>
-      </c>
-    </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>171</v>
       </c>
@@ -10498,11 +7607,8 @@
       <c r="H230">
         <v>1</v>
       </c>
-      <c r="J230">
-        <v>1490184268</v>
-      </c>
-    </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>172</v>
       </c>
@@ -10527,11 +7633,8 @@
       <c r="H231">
         <v>3</v>
       </c>
-      <c r="J231">
-        <v>1496071665</v>
-      </c>
-    </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>174</v>
       </c>
@@ -10556,11 +7659,8 @@
       <c r="H232">
         <v>1</v>
       </c>
-      <c r="J232">
-        <v>1496349016</v>
-      </c>
-    </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>176</v>
       </c>
@@ -10585,11 +7685,8 @@
       <c r="H233">
         <v>1</v>
       </c>
-      <c r="J233">
-        <v>1498090728</v>
-      </c>
-    </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>177</v>
       </c>
@@ -10614,11 +7711,8 @@
       <c r="H234">
         <v>7</v>
       </c>
-      <c r="J234">
-        <v>1499234528</v>
-      </c>
-    </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>178</v>
       </c>
@@ -10643,11 +7737,8 @@
       <c r="H235">
         <v>25</v>
       </c>
-      <c r="J235">
-        <v>1500339182</v>
-      </c>
-    </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>179</v>
       </c>
@@ -10672,11 +7763,8 @@
       <c r="H236">
         <v>2</v>
       </c>
-      <c r="J236">
-        <v>1500537826</v>
-      </c>
-    </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>182</v>
       </c>
@@ -10701,11 +7789,8 @@
       <c r="H237">
         <v>2</v>
       </c>
-      <c r="J237">
-        <v>1502494929</v>
-      </c>
-    </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>185</v>
       </c>
@@ -10730,11 +7815,8 @@
       <c r="H238">
         <v>7</v>
       </c>
-      <c r="J238">
-        <v>1504609799</v>
-      </c>
-    </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>186</v>
       </c>
@@ -10759,11 +7841,8 @@
       <c r="H239">
         <v>3</v>
       </c>
-      <c r="J239">
-        <v>1509043599</v>
-      </c>
-    </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>187</v>
       </c>
@@ -10788,11 +7867,8 @@
       <c r="H240">
         <v>1</v>
       </c>
-      <c r="J240">
-        <v>1509980917</v>
-      </c>
-    </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>188</v>
       </c>
@@ -10817,11 +7893,8 @@
       <c r="H241">
         <v>1</v>
       </c>
-      <c r="J241">
-        <v>1510627730</v>
-      </c>
-    </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>189</v>
       </c>
@@ -10846,11 +7919,8 @@
       <c r="H242">
         <v>44</v>
       </c>
-      <c r="J242">
-        <v>1513433461</v>
-      </c>
-    </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>191</v>
       </c>
@@ -10875,11 +7945,8 @@
       <c r="H243">
         <v>1</v>
       </c>
-      <c r="J243">
-        <v>1513502366</v>
-      </c>
-    </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>193</v>
       </c>
@@ -10904,11 +7971,8 @@
       <c r="H244">
         <v>3</v>
       </c>
-      <c r="J244">
-        <v>1514105016</v>
-      </c>
-    </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>194</v>
       </c>
@@ -10933,11 +7997,8 @@
       <c r="H245">
         <v>6</v>
       </c>
-      <c r="J245">
-        <v>1515425925</v>
-      </c>
-    </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>196</v>
       </c>
@@ -10962,11 +8023,8 @@
       <c r="H246">
         <v>1</v>
       </c>
-      <c r="J246">
-        <v>1520258352</v>
-      </c>
-    </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>197</v>
       </c>
@@ -10991,11 +8049,8 @@
       <c r="H247">
         <v>1</v>
       </c>
-      <c r="J247">
-        <v>1520325457</v>
-      </c>
-    </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>198</v>
       </c>
@@ -11020,11 +8075,8 @@
       <c r="H248">
         <v>1</v>
       </c>
-      <c r="J248">
-        <v>1521427474</v>
-      </c>
-    </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>199</v>
       </c>
@@ -11049,11 +8101,8 @@
       <c r="H249">
         <v>1</v>
       </c>
-      <c r="J249">
-        <v>1524250714</v>
-      </c>
-    </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>201</v>
       </c>
@@ -11078,11 +8127,8 @@
       <c r="H250">
         <v>3</v>
       </c>
-      <c r="J250">
-        <v>1532509459</v>
-      </c>
-    </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>202</v>
       </c>
@@ -11107,11 +8153,8 @@
       <c r="H251">
         <v>5</v>
       </c>
-      <c r="J251">
-        <v>1533588545</v>
-      </c>
-    </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>203</v>
       </c>
@@ -11136,11 +8179,8 @@
       <c r="H252">
         <v>2</v>
       </c>
-      <c r="J252">
-        <v>1540966450</v>
-      </c>
-    </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>206</v>
       </c>
@@ -11165,11 +8205,8 @@
       <c r="H253">
         <v>20</v>
       </c>
-      <c r="J253">
-        <v>1541901013</v>
-      </c>
-    </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="254" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>208</v>
       </c>
@@ -11194,11 +8231,8 @@
       <c r="H254">
         <v>3</v>
       </c>
-      <c r="J254">
-        <v>1542819512</v>
-      </c>
-    </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="255" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>212</v>
       </c>
@@ -11223,11 +8257,8 @@
       <c r="H255">
         <v>1</v>
       </c>
-      <c r="J255">
-        <v>1543443398</v>
-      </c>
-    </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="256" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
         <v>214</v>
       </c>
@@ -11252,11 +8283,8 @@
       <c r="H256">
         <v>56</v>
       </c>
-      <c r="J256">
-        <v>1544565019</v>
-      </c>
-    </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
         <v>215</v>
       </c>
@@ -11281,11 +8309,8 @@
       <c r="H257">
         <v>337</v>
       </c>
-      <c r="J257">
-        <v>1548861450</v>
-      </c>
-    </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="258" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>216</v>
       </c>
@@ -11310,11 +8335,8 @@
       <c r="H258">
         <v>1</v>
       </c>
-      <c r="J258">
-        <v>1552745223</v>
-      </c>
-    </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="259" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>217</v>
       </c>
@@ -11339,11 +8361,8 @@
       <c r="H259">
         <v>1</v>
       </c>
-      <c r="J259">
-        <v>1555035076</v>
-      </c>
-    </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="260" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>218</v>
       </c>
@@ -11368,11 +8387,8 @@
       <c r="H260">
         <v>4</v>
       </c>
-      <c r="J260">
-        <v>1558985607</v>
-      </c>
-    </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="261" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>224</v>
       </c>
@@ -11380,52 +8396,94 @@
         <v>160</v>
       </c>
     </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A262" t="s">
+        <v>228</v>
+      </c>
+      <c r="B262">
+        <f>AVERAGE(B165:B260)</f>
+        <v>1.6770833333333333</v>
+      </c>
+      <c r="F262">
+        <f>AVERAGE(F165:F260)</f>
+        <v>391.32291666666669</v>
+      </c>
+      <c r="G262">
+        <f t="shared" ref="G262:H262" si="0">AVERAGE(G165:G260)</f>
+        <v>110.46875</v>
+      </c>
+      <c r="H262">
+        <f t="shared" si="0"/>
+        <v>12.90625</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A263" t="s">
+        <v>229</v>
+      </c>
+      <c r="B263">
+        <f>MEDIAN(B165:B260)</f>
+        <v>1</v>
+      </c>
+      <c r="F263">
+        <f t="shared" ref="C263:H263" si="1">MEDIAN(F165:F260)</f>
+        <v>155</v>
+      </c>
+      <c r="G263">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H263">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C264" s="1"/>
     </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C265" s="1"/>
       <c r="D265" s="1"/>
       <c r="E265" s="1"/>
       <c r="G265" s="1"/>
     </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C266" s="1"/>
       <c r="D266" s="1"/>
       <c r="E266" s="1"/>
       <c r="G266" s="1"/>
     </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C267" s="1"/>
       <c r="D267" s="1"/>
       <c r="E267" s="1"/>
       <c r="F267" s="1"/>
       <c r="G267" s="1"/>
     </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C268" s="1"/>
       <c r="D268" s="1"/>
       <c r="E268" s="1"/>
       <c r="G268" s="1"/>
     </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C269" s="1"/>
       <c r="D269" s="1"/>
       <c r="G269" s="1"/>
     </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C270" s="1"/>
       <c r="D270" s="1"/>
       <c r="E270" s="1"/>
       <c r="G270" s="1"/>
     </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C271" s="1"/>
       <c r="D271" s="1"/>
       <c r="E271" s="1"/>
       <c r="G271" s="1"/>
     </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C272" s="1"/>
       <c r="D272" s="1"/>
       <c r="E272" s="1"/>
@@ -11723,6 +8781,7 @@
     <sortCondition ref="G266:G280"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>